--- a/Final Demand/AIC/AIC_Min.xlsx
+++ b/Final Demand/AIC/AIC_Min.xlsx
@@ -7,93 +7,114 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="1" r:id="rId1"/>
-    <sheet name="2022" sheetId="2" r:id="rId2"/>
-    <sheet name="2023" sheetId="3" r:id="rId3"/>
-    <sheet name="2024" sheetId="4" r:id="rId4"/>
-    <sheet name="2025" sheetId="5" r:id="rId5"/>
-    <sheet name="2026" sheetId="6" r:id="rId6"/>
-    <sheet name="2027" sheetId="7" r:id="rId7"/>
-    <sheet name="2028" sheetId="8" r:id="rId8"/>
-    <sheet name="2029" sheetId="9" r:id="rId9"/>
-    <sheet name="2030" sheetId="10" r:id="rId10"/>
-    <sheet name="2031" sheetId="11" r:id="rId11"/>
-    <sheet name="2032" sheetId="12" r:id="rId12"/>
-    <sheet name="2033" sheetId="13" r:id="rId13"/>
-    <sheet name="2034" sheetId="14" r:id="rId14"/>
-    <sheet name="2035" sheetId="15" r:id="rId15"/>
-    <sheet name="2036" sheetId="16" r:id="rId16"/>
-    <sheet name="2037" sheetId="17" r:id="rId17"/>
-    <sheet name="2038" sheetId="18" r:id="rId18"/>
-    <sheet name="2039" sheetId="19" r:id="rId19"/>
-    <sheet name="2040" sheetId="20" r:id="rId20"/>
-    <sheet name="2041" sheetId="21" r:id="rId21"/>
-    <sheet name="2042" sheetId="22" r:id="rId22"/>
-    <sheet name="2043" sheetId="23" r:id="rId23"/>
-    <sheet name="2044" sheetId="24" r:id="rId24"/>
-    <sheet name="2045" sheetId="25" r:id="rId25"/>
-    <sheet name="2046" sheetId="26" r:id="rId26"/>
-    <sheet name="2047" sheetId="27" r:id="rId27"/>
-    <sheet name="2048" sheetId="28" r:id="rId28"/>
-    <sheet name="2049" sheetId="29" r:id="rId29"/>
-    <sheet name="2050" sheetId="30" r:id="rId30"/>
-    <sheet name="2051" sheetId="31" r:id="rId31"/>
-    <sheet name="2052" sheetId="32" r:id="rId32"/>
-    <sheet name="2053" sheetId="33" r:id="rId33"/>
-    <sheet name="2054" sheetId="34" r:id="rId34"/>
-    <sheet name="2055" sheetId="35" r:id="rId35"/>
-    <sheet name="2056" sheetId="36" r:id="rId36"/>
-    <sheet name="2057" sheetId="37" r:id="rId37"/>
-    <sheet name="2058" sheetId="38" r:id="rId38"/>
-    <sheet name="2059" sheetId="39" r:id="rId39"/>
-    <sheet name="2060" sheetId="40" r:id="rId40"/>
-    <sheet name="2061" sheetId="41" r:id="rId41"/>
-    <sheet name="2062" sheetId="42" r:id="rId42"/>
-    <sheet name="2063" sheetId="43" r:id="rId43"/>
-    <sheet name="2064" sheetId="44" r:id="rId44"/>
-    <sheet name="2065" sheetId="45" r:id="rId45"/>
-    <sheet name="2066" sheetId="46" r:id="rId46"/>
-    <sheet name="2067" sheetId="47" r:id="rId47"/>
-    <sheet name="2068" sheetId="48" r:id="rId48"/>
-    <sheet name="2069" sheetId="49" r:id="rId49"/>
-    <sheet name="2070" sheetId="50" r:id="rId50"/>
-    <sheet name="2071" sheetId="51" r:id="rId51"/>
-    <sheet name="2072" sheetId="52" r:id="rId52"/>
-    <sheet name="2073" sheetId="53" r:id="rId53"/>
-    <sheet name="2074" sheetId="54" r:id="rId54"/>
-    <sheet name="2075" sheetId="55" r:id="rId55"/>
-    <sheet name="2076" sheetId="56" r:id="rId56"/>
-    <sheet name="2077" sheetId="57" r:id="rId57"/>
-    <sheet name="2078" sheetId="58" r:id="rId58"/>
-    <sheet name="2079" sheetId="59" r:id="rId59"/>
-    <sheet name="2080" sheetId="60" r:id="rId60"/>
-    <sheet name="2081" sheetId="61" r:id="rId61"/>
-    <sheet name="2082" sheetId="62" r:id="rId62"/>
-    <sheet name="2083" sheetId="63" r:id="rId63"/>
-    <sheet name="2084" sheetId="64" r:id="rId64"/>
-    <sheet name="2085" sheetId="65" r:id="rId65"/>
-    <sheet name="2086" sheetId="66" r:id="rId66"/>
-    <sheet name="2087" sheetId="67" r:id="rId67"/>
-    <sheet name="2088" sheetId="68" r:id="rId68"/>
-    <sheet name="2089" sheetId="69" r:id="rId69"/>
-    <sheet name="2090" sheetId="70" r:id="rId70"/>
-    <sheet name="2091" sheetId="71" r:id="rId71"/>
-    <sheet name="2092" sheetId="72" r:id="rId72"/>
-    <sheet name="2093" sheetId="73" r:id="rId73"/>
-    <sheet name="2094" sheetId="74" r:id="rId74"/>
-    <sheet name="2095" sheetId="75" r:id="rId75"/>
-    <sheet name="2096" sheetId="76" r:id="rId76"/>
-    <sheet name="2097" sheetId="77" r:id="rId77"/>
-    <sheet name="2098" sheetId="78" r:id="rId78"/>
-    <sheet name="2099" sheetId="79" r:id="rId79"/>
-    <sheet name="2100" sheetId="80" r:id="rId80"/>
+    <sheet name="2000" sheetId="1" r:id="rId1"/>
+    <sheet name="2001" sheetId="2" r:id="rId2"/>
+    <sheet name="2002" sheetId="3" r:id="rId3"/>
+    <sheet name="2003" sheetId="4" r:id="rId4"/>
+    <sheet name="2004" sheetId="5" r:id="rId5"/>
+    <sheet name="2005" sheetId="6" r:id="rId6"/>
+    <sheet name="2006" sheetId="7" r:id="rId7"/>
+    <sheet name="2007" sheetId="8" r:id="rId8"/>
+    <sheet name="2008" sheetId="9" r:id="rId9"/>
+    <sheet name="2009" sheetId="10" r:id="rId10"/>
+    <sheet name="2010" sheetId="11" r:id="rId11"/>
+    <sheet name="2011" sheetId="12" r:id="rId12"/>
+    <sheet name="2012" sheetId="13" r:id="rId13"/>
+    <sheet name="2013" sheetId="14" r:id="rId14"/>
+    <sheet name="2014" sheetId="15" r:id="rId15"/>
+    <sheet name="2015" sheetId="16" r:id="rId16"/>
+    <sheet name="2016" sheetId="17" r:id="rId17"/>
+    <sheet name="2017" sheetId="18" r:id="rId18"/>
+    <sheet name="2018" sheetId="19" r:id="rId19"/>
+    <sheet name="2019" sheetId="20" r:id="rId20"/>
+    <sheet name="2020" sheetId="21" r:id="rId21"/>
+    <sheet name="2021" sheetId="22" r:id="rId22"/>
+    <sheet name="2022" sheetId="23" r:id="rId23"/>
+    <sheet name="2023" sheetId="24" r:id="rId24"/>
+    <sheet name="2024" sheetId="25" r:id="rId25"/>
+    <sheet name="2025" sheetId="26" r:id="rId26"/>
+    <sheet name="2026" sheetId="27" r:id="rId27"/>
+    <sheet name="2027" sheetId="28" r:id="rId28"/>
+    <sheet name="2028" sheetId="29" r:id="rId29"/>
+    <sheet name="2029" sheetId="30" r:id="rId30"/>
+    <sheet name="2030" sheetId="31" r:id="rId31"/>
+    <sheet name="2031" sheetId="32" r:id="rId32"/>
+    <sheet name="2032" sheetId="33" r:id="rId33"/>
+    <sheet name="2033" sheetId="34" r:id="rId34"/>
+    <sheet name="2034" sheetId="35" r:id="rId35"/>
+    <sheet name="2035" sheetId="36" r:id="rId36"/>
+    <sheet name="2036" sheetId="37" r:id="rId37"/>
+    <sheet name="2037" sheetId="38" r:id="rId38"/>
+    <sheet name="2038" sheetId="39" r:id="rId39"/>
+    <sheet name="2039" sheetId="40" r:id="rId40"/>
+    <sheet name="2040" sheetId="41" r:id="rId41"/>
+    <sheet name="2041" sheetId="42" r:id="rId42"/>
+    <sheet name="2042" sheetId="43" r:id="rId43"/>
+    <sheet name="2043" sheetId="44" r:id="rId44"/>
+    <sheet name="2044" sheetId="45" r:id="rId45"/>
+    <sheet name="2045" sheetId="46" r:id="rId46"/>
+    <sheet name="2046" sheetId="47" r:id="rId47"/>
+    <sheet name="2047" sheetId="48" r:id="rId48"/>
+    <sheet name="2048" sheetId="49" r:id="rId49"/>
+    <sheet name="2049" sheetId="50" r:id="rId50"/>
+    <sheet name="2050" sheetId="51" r:id="rId51"/>
+    <sheet name="2051" sheetId="52" r:id="rId52"/>
+    <sheet name="2052" sheetId="53" r:id="rId53"/>
+    <sheet name="2053" sheetId="54" r:id="rId54"/>
+    <sheet name="2054" sheetId="55" r:id="rId55"/>
+    <sheet name="2055" sheetId="56" r:id="rId56"/>
+    <sheet name="2056" sheetId="57" r:id="rId57"/>
+    <sheet name="2057" sheetId="58" r:id="rId58"/>
+    <sheet name="2058" sheetId="59" r:id="rId59"/>
+    <sheet name="2059" sheetId="60" r:id="rId60"/>
+    <sheet name="2060" sheetId="61" r:id="rId61"/>
+    <sheet name="2061" sheetId="62" r:id="rId62"/>
+    <sheet name="2062" sheetId="63" r:id="rId63"/>
+    <sheet name="2063" sheetId="64" r:id="rId64"/>
+    <sheet name="2064" sheetId="65" r:id="rId65"/>
+    <sheet name="2065" sheetId="66" r:id="rId66"/>
+    <sheet name="2066" sheetId="67" r:id="rId67"/>
+    <sheet name="2067" sheetId="68" r:id="rId68"/>
+    <sheet name="2068" sheetId="69" r:id="rId69"/>
+    <sheet name="2069" sheetId="70" r:id="rId70"/>
+    <sheet name="2070" sheetId="71" r:id="rId71"/>
+    <sheet name="2071" sheetId="72" r:id="rId72"/>
+    <sheet name="2072" sheetId="73" r:id="rId73"/>
+    <sheet name="2073" sheetId="74" r:id="rId74"/>
+    <sheet name="2074" sheetId="75" r:id="rId75"/>
+    <sheet name="2075" sheetId="76" r:id="rId76"/>
+    <sheet name="2076" sheetId="77" r:id="rId77"/>
+    <sheet name="2077" sheetId="78" r:id="rId78"/>
+    <sheet name="2078" sheetId="79" r:id="rId79"/>
+    <sheet name="2079" sheetId="80" r:id="rId80"/>
+    <sheet name="2080" sheetId="81" r:id="rId81"/>
+    <sheet name="2081" sheetId="82" r:id="rId82"/>
+    <sheet name="2082" sheetId="83" r:id="rId83"/>
+    <sheet name="2083" sheetId="84" r:id="rId84"/>
+    <sheet name="2084" sheetId="85" r:id="rId85"/>
+    <sheet name="2085" sheetId="86" r:id="rId86"/>
+    <sheet name="2086" sheetId="87" r:id="rId87"/>
+    <sheet name="2087" sheetId="88" r:id="rId88"/>
+    <sheet name="2088" sheetId="89" r:id="rId89"/>
+    <sheet name="2089" sheetId="90" r:id="rId90"/>
+    <sheet name="2090" sheetId="91" r:id="rId91"/>
+    <sheet name="2091" sheetId="92" r:id="rId92"/>
+    <sheet name="2092" sheetId="93" r:id="rId93"/>
+    <sheet name="2093" sheetId="94" r:id="rId94"/>
+    <sheet name="2094" sheetId="95" r:id="rId95"/>
+    <sheet name="2095" sheetId="96" r:id="rId96"/>
+    <sheet name="2096" sheetId="97" r:id="rId97"/>
+    <sheet name="2097" sheetId="98" r:id="rId98"/>
+    <sheet name="2098" sheetId="99" r:id="rId99"/>
+    <sheet name="2099" sheetId="100" r:id="rId100"/>
+    <sheet name="2100" sheetId="101" r:id="rId101"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="6">
   <si>
     <t>FD</t>
   </si>
@@ -107,10 +128,10 @@
     <t>PV</t>
   </si>
   <si>
-    <t>Offshore wind</t>
+    <t>Onshore wind</t>
   </si>
   <si>
-    <t>Onshore wind</t>
+    <t>Offshore wind</t>
   </si>
 </sst>
 </file>
@@ -490,6 +511,902 @@
         <v>3</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>25939804068.47028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>17980061712.64519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1377486416.783263</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>25079626525.81738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7400383036.875977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1385264703.301025</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>25015560737.09277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6356181909.988037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1229166728.378845</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>54028072618.58443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13245594254.30417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1729281606.913317</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>81404108043.30713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>14164428588.20908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>535940531.1659689</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>47750964972.63586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15179282528.9527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1316955016.973929</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>23814957678.16544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>12469335492.99747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4284931633.131479</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>14536655748.7717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15232592131.07214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2265435762.51639</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>13690097306.98053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13318717744.57767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>11327370279.67697</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9708379733.672028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13716148403.4639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5279631787.948605</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7944316511.236847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13888695079.25766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6119827139.588688</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>10343242729.80591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>9276115544.928131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7037278188.644272</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>407753480.198209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7846528544.909435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>37117897.44300002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>18907094001.50526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11554532200.90381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4996507218.411793</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16617188745.66908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>10083733866.80612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6832607108.370712</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>20940142031.05086</v>
       </c>
     </row>
@@ -500,29 +1417,533 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14581858543.15302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1542612773.187248</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14581858543.15302</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>26373355471.94235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>18849665713.0585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2516687447.129654</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>170937694411.3929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>42340756373.37326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7753490260.162231</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>171213365049.5829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>41395588128.02563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7517366781.929428</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>171479565469.6328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>41837451925.76337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7408947899.708183</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>543447337264.0591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>132579920083.4913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24415639440.03936</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>543635415738.3076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>132737730018.2872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24587114900.27647</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>543757443747.8684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>132579649945.1042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24606260532.81943</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>344203261.5780385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>9671167627.441425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>676370575.6279999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>543808526468.1108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>132493238603.2104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>24683343231.57608</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -556,29 +1977,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>132360564088.7107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>24689167687.87619</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132360564088.7107</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -612,29 +2033,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>117426783537.9554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>21997709979.93277</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>117426783537.9554</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -668,29 +2089,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>117698582509.3423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22202335094.57587</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>117698582509.3423</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -724,29 +2145,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>117834980230.1438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>22965253170.26816</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>117834980230.1438</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -780,29 +2201,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>117665481252.6829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>23359985136.55237</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>117665481252.6829</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -836,29 +2257,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>117933110098.6128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>23367738640.89264</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>117933110098.6128</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -892,29 +2313,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14298368087.17773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3862267898.85498</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14298368087.17773</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -948,29 +2369,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14118583286.2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2054588789.423218</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14118583286.2019</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1004,29 +2425,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>13840026403.70117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2304332193.27887</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>13840026403.70117</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>971099725.0434961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7676332671.315521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>863609747.1737996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1060,85 +2537,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14150356851.07764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2508651641.589111</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14150356851.07764</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>26373355471.94235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2516687447.129654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>18849665713.0585</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1172,29 +2593,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15929729953.2063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2066119690.748779</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15929729953.2063</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1228,29 +2649,29 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
         <v>4016984835.305664</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1284,29 +2705,29 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
         <v>7438605515.317139</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1340,29 +2761,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11423213060.62695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1703176773.550659</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11423213060.62695</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1396,29 +2817,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14318027286.13013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2908148792.265869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14318027286.13013</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1452,29 +2873,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>17236269772.41138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3262901752.994568</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>17236269772.41138</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1508,29 +2929,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>27986300909.32544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>5203696268.272339</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>27986300909.32544</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1564,29 +2985,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>31022945576.80811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>5846916446.641968</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>31022945576.80811</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1620,29 +3041,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11264167462.98999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2191384179.823608</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11264167462.98999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2894040065.017703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>10163621845.63424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>103930112.8404005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1676,85 +3153,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>175075454.8696289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>112035649.9522705</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>175075454.8696289</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>170937694411.3929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>7753490260.162231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>42340756373.37326</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1810,7 +3231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1866,7 +3287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1922,119 +3343,119 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2090,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2146,7 +3567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2202,7 +3623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2236,29 +3657,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>5678712319.51416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>488556230.7665405</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5678712319.51416</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3986274662.110228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>9696589980.632774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2.384185791015625E-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2292,85 +3769,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>17426893193.94482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3043196561.588806</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>17426893193.94482</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>171213365049.5829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>7517366781.929428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>41395588128.02563</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2404,29 +3825,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>17389866385.2876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3073753849.969299</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>17389866385.2876</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2460,29 +3881,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14159858404.25342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2399046320.358215</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14159858404.25342</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2516,29 +3937,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>14394344164.31958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2615611681.365173</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14394344164.31958</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2572,29 +3993,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>17967619470.24316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3508583946.259155</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>17967619470.24316</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2628,29 +4049,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>19793228142.09155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4084010647.741638</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>19793228142.09155</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2684,29 +4105,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>19923997129.78369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3968073248.731201</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>19923997129.78369</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2740,29 +4161,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>17813858259.81689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3318948302.487</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>17813858259.81689</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2796,29 +4217,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15379594397.70312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2834647035.473083</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15379594397.70312</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2852,29 +4273,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8903594687.860596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1661977396.759094</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8903594687.860596</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3868451345.882563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11614231857.39229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>445414769.3160248</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2908,85 +4385,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>4667847310.610352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>855815707.0860596</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>4667847310.610352</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>171479565469.6328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>7408947899.708183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>41837451925.76337</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3020,29 +4441,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8089183257.005371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1467038514.959534</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8089183257.005371</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3076,29 +4497,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11189912949.15479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2043065030.057373</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11189912949.15479</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3132,29 +4553,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12601548768.99414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2324346758.362854</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12601548768.99414</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3188,29 +4609,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12687556119.41919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2348944689.930298</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12687556119.41919</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3244,29 +4665,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12729155230.41553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2355013305.855591</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12729155230.41553</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3300,29 +4721,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12860884424.20996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2373227571.290039</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12860884424.20996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3356,29 +4777,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12180580598.36353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2230416980.945557</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12180580598.36353</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3412,29 +4833,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>13160088280.08203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2374921982.226746</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>13160088280.08203</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3468,29 +4889,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15042561906.80396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2678033313.142151</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15042561906.80396</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7211415062.851868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>13346239590.37695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>449538980.1441698</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3524,85 +5001,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>16850734542.15625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3052594360.509338</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>16850734542.15625</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>543447337264.0591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24415639440.03936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132579920083.4913</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3636,29 +5057,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>15807785027.40454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>3002889785.896179</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>15807785027.40454</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3692,29 +5113,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11305550519.80371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2170204116.910645</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11305550519.80371</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3748,29 +5169,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>10247153055.27393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1975712770.467346</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10247153055.27393</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3804,29 +5225,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11542233505.24316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2278505123.785461</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11542233505.24316</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3860,29 +5281,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>12117437170.31079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2375699653.511414</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>12117437170.31079</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3916,29 +5337,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>11026014204.7334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2067218048.523132</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11026014204.7334</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3972,29 +5393,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8304088936.603027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1439576935.615601</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8304088936.603027</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4028,29 +5449,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6912471994.968262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1170854599.748962</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6912471994.968262</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4084,29 +5505,85 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6100075387.238037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1090710408.249329</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6100075387.238037</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>22036666849.56127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11317587638.79782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>602134780.7738056</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4140,85 +5617,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6477768386.61792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1194280540.277344</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6477768386.61792</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>543635415738.3076</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24587114900.27647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132737730018.2872</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4252,29 +5673,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8853834297.246338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1630720024.278442</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8853834297.246338</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4308,29 +5729,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>9996479391.53418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1845620592.913208</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>9996479391.53418</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4364,29 +5785,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>10107109171.35889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1876765033.60321</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>10107109171.35889</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4420,29 +5841,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>9138609606.459229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1700834519.416504</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>9138609606.459229</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4476,29 +5897,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8480984004.623291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1572894797.96521</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8480984004.623291</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4532,29 +5953,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>8312912005.713867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1533360759.392944</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8312912005.713867</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4588,29 +6009,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6688856252.662598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1225088617.754456</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6688856252.662598</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4644,29 +6065,29 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>6985334214.563721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1274860742.768311</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6985334214.563721</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4700,243 +6121,19 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <v>7486295600.017822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>1373464973.937378</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>7486295600.017822</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>25079626525.81738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1385264703.301025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>7400383036.875977</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>543757443747.8684</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24606260532.81943</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132579649945.1042</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>25015560737.09277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1229166728.378845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6356181909.988037</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>543808526468.1108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>24683343231.57608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>132493238603.2104</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>

--- a/Final Demand/AIC/AIC_Min.xlsx
+++ b/Final Demand/AIC/AIC_Min.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Offshore wind</t>
+    <t>Onshore wind plants</t>
   </si>
   <si>
-    <t>Onshore wind</t>
+    <t>Photovoltaic plants</t>
   </si>
   <si>
-    <t>PV</t>
+    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1377486416.783263</v>
+        <v>17980061712.64519</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17980061712.64519</v>
+        <v>25939804068.47028</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25939804068.47028</v>
+        <v>1377486416.783263</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1385264703.301025</v>
+        <v>7400383036.875977</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7400383036.875977</v>
+        <v>25079626525.81738</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25079626525.81738</v>
+        <v>1385264703.301025</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1229166728.378845</v>
+        <v>6356181909.988037</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6356181909.988037</v>
+        <v>25015560737.09277</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25015560737.09277</v>
+        <v>1229166728.378845</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1729281606.913317</v>
+        <v>13245594254.30417</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13245594254.30417</v>
+        <v>54028072618.58443</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54028072618.58443</v>
+        <v>1729281606.913317</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>535940531.1659689</v>
+        <v>14164428588.20908</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14164428588.20908</v>
+        <v>81404108043.30713</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>81404108043.30713</v>
+        <v>535940531.1659689</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1316955016.973929</v>
+        <v>15179282528.9527</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15179282528.9527</v>
+        <v>47750964972.63586</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47750964972.63586</v>
+        <v>1316955016.973929</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4284931633.131479</v>
+        <v>12469335492.99747</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12469335492.99747</v>
+        <v>23814957678.16544</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23814957678.16544</v>
+        <v>4284931633.131479</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2265435762.51639</v>
+        <v>15232592131.07214</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15232592131.07214</v>
+        <v>14536655748.7717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14536655748.7717</v>
+        <v>2265435762.51639</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11327370279.67697</v>
+        <v>13318717744.57767</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13318717744.57767</v>
+        <v>13690097306.98053</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13690097306.98053</v>
+        <v>11327370279.67697</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5279631787.948605</v>
+        <v>13716148403.4639</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13716148403.4639</v>
+        <v>9708379733.672028</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9708379733.672028</v>
+        <v>5279631787.948605</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6119827139.588688</v>
+        <v>13888695079.25766</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13888695079.25766</v>
+        <v>7944316511.236847</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7944316511.236847</v>
+        <v>6119827139.588688</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7037278188.644272</v>
+        <v>9276115544.928131</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9276115544.928131</v>
+        <v>10343242729.80591</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10343242729.80591</v>
+        <v>7037278188.644272</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37117897.44300002</v>
+        <v>7846528544.909435</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7846528544.909435</v>
+        <v>407753480.198209</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407753480.198209</v>
+        <v>37117897.44300002</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4996507218.411793</v>
+        <v>11554532200.90381</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11554532200.90381</v>
+        <v>18907094001.50526</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18907094001.50526</v>
+        <v>4996507218.411793</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6832607108.370712</v>
+        <v>10083733866.80612</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10083733866.80612</v>
+        <v>16617188745.66908</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16617188745.66908</v>
+        <v>6832607108.370712</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1542612773.187248</v>
+        <v>14581858543.15302</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14581858543.15302</v>
+        <v>20940142031.05086</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20940142031.05086</v>
+        <v>1542612773.187248</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2516687447.129654</v>
+        <v>18849665713.0585</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18849665713.0585</v>
+        <v>26373355471.94235</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26373355471.94235</v>
+        <v>2516687447.129654</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7753490260.162231</v>
+        <v>42340756373.37326</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42340756373.37326</v>
+        <v>170937694411.3929</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170937694411.3929</v>
+        <v>7753490260.162231</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7517366781.929428</v>
+        <v>41395588128.02563</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41395588128.02563</v>
+        <v>171213365049.5829</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>171213365049.5829</v>
+        <v>7517366781.929428</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7408947899.708183</v>
+        <v>41837451925.76337</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41837451925.76337</v>
+        <v>171479565469.6328</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>171479565469.6328</v>
+        <v>7408947899.708183</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24415639440.03936</v>
+        <v>132579920083.4913</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132579920083.4913</v>
+        <v>543447337264.0591</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543447337264.0591</v>
+        <v>24415639440.03936</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24587114900.27647</v>
+        <v>132737730018.2872</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132737730018.2872</v>
+        <v>543635415738.3076</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543635415738.3076</v>
+        <v>24587114900.27647</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24606260532.81943</v>
+        <v>132579649945.1042</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132579649945.1042</v>
+        <v>543757443747.8684</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543757443747.8684</v>
+        <v>24606260532.81943</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>676370575.6279999</v>
+        <v>9671167627.441425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9671167627.441425</v>
+        <v>344203261.5780385</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>344203261.5780385</v>
+        <v>676370575.6279999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24683343231.57608</v>
+        <v>132493238603.2104</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132493238603.2104</v>
+        <v>543808526468.1108</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543808526468.1108</v>
+        <v>24683343231.57608</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24689167687.87619</v>
+        <v>132360564088.7107</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132360564088.7107</v>
+        <v>543801525808.5977</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543801525808.5977</v>
+        <v>24689167687.87619</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21997709979.93277</v>
+        <v>117426783537.9554</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117426783537.9554</v>
+        <v>519297489274.9941</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519297489274.9941</v>
+        <v>21997709979.93277</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22202335094.57587</v>
+        <v>117698582509.3423</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117698582509.3423</v>
+        <v>519308638622.2739</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519308638622.2739</v>
+        <v>22202335094.57587</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22965253170.26816</v>
+        <v>117834980230.1438</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117834980230.1438</v>
+        <v>519452809202.3848</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519452809202.3848</v>
+        <v>22965253170.26816</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23359985136.55237</v>
+        <v>117665481252.6829</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117665481252.6829</v>
+        <v>519848845860.6523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519848845860.6523</v>
+        <v>23359985136.55237</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23367738640.89264</v>
+        <v>117933110098.6128</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117933110098.6128</v>
+        <v>520632527508.2725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>520632527508.2725</v>
+        <v>23367738640.89264</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3862267898.85498</v>
+        <v>14298368087.17773</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14298368087.17773</v>
+        <v>87719408009.90039</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>87719408009.90039</v>
+        <v>3862267898.85498</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2054588789.423218</v>
+        <v>14118583286.2019</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14118583286.2019</v>
+        <v>89663031169.56934</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>89663031169.56934</v>
+        <v>2054588789.423218</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2304332193.27887</v>
+        <v>13840026403.70117</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13840026403.70117</v>
+        <v>92305173685.95215</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>92305173685.95215</v>
+        <v>2304332193.27887</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>863609747.1737996</v>
+        <v>7676332671.315521</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7676332671.315521</v>
+        <v>971099725.0434961</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>971099725.0434961</v>
+        <v>863609747.1737996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2508651641.589111</v>
+        <v>14150356851.07764</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14150356851.07764</v>
+        <v>95629276351.51953</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>95629276351.51953</v>
+        <v>2508651641.589111</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2066119690.748779</v>
+        <v>15929729953.2063</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15929729953.2063</v>
+        <v>99525422005.92969</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>99525422005.92969</v>
+        <v>2066119690.748779</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4016984835.305664</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4016984835.305664</v>
+        <v>21652254014.60742</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21652254014.60742</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7438605515.317139</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7438605515.317139</v>
+        <v>25994012143.60742</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25994012143.60742</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1703176773.550659</v>
+        <v>11423213060.62695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11423213060.62695</v>
+        <v>30058617763.2959</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30058617763.2959</v>
+        <v>1703176773.550659</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2908148792.265869</v>
+        <v>14318027286.13013</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14318027286.13013</v>
+        <v>33448701863.22168</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33448701863.22168</v>
+        <v>2908148792.265869</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3262901752.994568</v>
+        <v>17236269772.41138</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17236269772.41138</v>
+        <v>35754697573.70996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35754697573.70996</v>
+        <v>3262901752.994568</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5203696268.272339</v>
+        <v>27986300909.32544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27986300909.32544</v>
+        <v>36591069554.9541</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36591069554.9541</v>
+        <v>5203696268.272339</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5846916446.641968</v>
+        <v>31022945576.80811</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31022945576.80811</v>
+        <v>35640010078.82422</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35640010078.82422</v>
+        <v>5846916446.641968</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2191384179.823608</v>
+        <v>11264167462.98999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11264167462.98999</v>
+        <v>32700929361.59277</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32700929361.59277</v>
+        <v>2191384179.823608</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>103930112.8404005</v>
+        <v>10163621845.63424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10163621845.63424</v>
+        <v>2894040065.017703</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2894040065.017703</v>
+        <v>103930112.8404005</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>112035649.9522705</v>
+        <v>175075454.8696289</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>175075454.8696289</v>
+        <v>27738465281.68359</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27738465281.68359</v>
+        <v>112035649.9522705</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20916781703.69629</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20916781703.69629</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12606954606.67969</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12606954606.67969</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3358933807.119141</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3358933807.119141</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>32110051813.81641</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32110051813.81641</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>41327312429.31738</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41327312429.31738</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>36781979137.6748</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36781979137.6748</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>488556230.7665405</v>
+        <v>5678712319.51416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5678712319.51416</v>
+        <v>34302974257.10059</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34302974257.10059</v>
+        <v>488556230.7665405</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.384185791015625E-07</v>
+        <v>9696589980.632774</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9696589980.632774</v>
+        <v>3986274662.110228</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3986274662.110228</v>
+        <v>2.384185791015625E-07</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3043196561.588806</v>
+        <v>17426893193.94482</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17426893193.94482</v>
+        <v>33871970155.30176</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33871970155.30176</v>
+        <v>3043196561.588806</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3073753849.969299</v>
+        <v>17389866385.2876</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17389866385.2876</v>
+        <v>35313992400.65527</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35313992400.65527</v>
+        <v>3073753849.969299</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2399046320.358215</v>
+        <v>14159858404.25342</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14159858404.25342</v>
+        <v>30266080718.80273</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30266080718.80273</v>
+        <v>2399046320.358215</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2615611681.365173</v>
+        <v>14394344164.31958</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14394344164.31958</v>
+        <v>34398333087.45215</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34398333087.45215</v>
+        <v>2615611681.365173</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3508583946.259155</v>
+        <v>17967619470.24316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17967619470.24316</v>
+        <v>39159283876.47754</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>39159283876.47754</v>
+        <v>3508583946.259155</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4084010647.741638</v>
+        <v>19793228142.09155</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19793228142.09155</v>
+        <v>44036163776.51562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44036163776.51562</v>
+        <v>4084010647.741638</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3968073248.731201</v>
+        <v>19923997129.78369</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19923997129.78369</v>
+        <v>48582106545.79102</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48582106545.79102</v>
+        <v>3968073248.731201</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3318948302.487</v>
+        <v>17813858259.81689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17813858259.81689</v>
+        <v>44543046025.83594</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44543046025.83594</v>
+        <v>3318948302.487</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2834647035.473083</v>
+        <v>15379594397.70312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15379594397.70312</v>
+        <v>47651731796.22656</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47651731796.22656</v>
+        <v>2834647035.473083</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1661977396.759094</v>
+        <v>8903594687.860596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8903594687.860596</v>
+        <v>49975950852.17969</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49975950852.17969</v>
+        <v>1661977396.759094</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>445414769.3160248</v>
+        <v>11614231857.39229</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11614231857.39229</v>
+        <v>3868451345.882563</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3868451345.882563</v>
+        <v>445414769.3160248</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>855815707.0860596</v>
+        <v>4667847310.610352</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4667847310.610352</v>
+        <v>51632536130.87695</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>51632536130.87695</v>
+        <v>855815707.0860596</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1467038514.959534</v>
+        <v>8089183257.005371</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8089183257.005371</v>
+        <v>52788146061.64844</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>52788146061.64844</v>
+        <v>1467038514.959534</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2043065030.057373</v>
+        <v>11189912949.15479</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11189912949.15479</v>
+        <v>47639059214.28809</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47639059214.28809</v>
+        <v>2043065030.057373</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2324346758.362854</v>
+        <v>12601548768.99414</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12601548768.99414</v>
+        <v>48266929515.01465</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48266929515.01465</v>
+        <v>2324346758.362854</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2348944689.930298</v>
+        <v>12687556119.41919</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12687556119.41919</v>
+        <v>48802013398.99023</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48802013398.99023</v>
+        <v>2348944689.930298</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2355013305.855591</v>
+        <v>12729155230.41553</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12729155230.41553</v>
+        <v>49306555339.25488</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49306555339.25488</v>
+        <v>2355013305.855591</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2373227571.290039</v>
+        <v>12860884424.20996</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12860884424.20996</v>
+        <v>49806350419.08496</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49806350419.08496</v>
+        <v>2373227571.290039</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2230416980.945557</v>
+        <v>12180580598.36353</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12180580598.36353</v>
+        <v>46131422717.62207</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46131422717.62207</v>
+        <v>2230416980.945557</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2374921982.226746</v>
+        <v>13160088280.08203</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13160088280.08203</v>
+        <v>46582376537.46289</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46582376537.46289</v>
+        <v>2374921982.226746</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2678033313.142151</v>
+        <v>15042561906.80396</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15042561906.80396</v>
+        <v>46957086222.11719</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46957086222.11719</v>
+        <v>2678033313.142151</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>449538980.1441698</v>
+        <v>13346239590.37695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13346239590.37695</v>
+        <v>7211415062.851868</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7211415062.851868</v>
+        <v>449538980.1441698</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3052594360.509338</v>
+        <v>16850734542.15625</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16850734542.15625</v>
+        <v>47222470379.86133</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47222470379.86133</v>
+        <v>3052594360.509338</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3002889785.896179</v>
+        <v>15807785027.40454</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15807785027.40454</v>
+        <v>47361918223.94824</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47361918223.94824</v>
+        <v>3002889785.896179</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2170204116.910645</v>
+        <v>11305550519.80371</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11305550519.80371</v>
+        <v>43317223214.91406</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43317223214.91406</v>
+        <v>2170204116.910645</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1975712770.467346</v>
+        <v>10247153055.27393</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10247153055.27393</v>
+        <v>43241608543.58789</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43241608543.58789</v>
+        <v>1975712770.467346</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2278505123.785461</v>
+        <v>11542233505.24316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11542233505.24316</v>
+        <v>43108515561.94922</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43108515561.94922</v>
+        <v>2278505123.785461</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2375699653.511414</v>
+        <v>12117437170.31079</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12117437170.31079</v>
+        <v>42954653329.32227</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42954653329.32227</v>
+        <v>2375699653.511414</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2067218048.523132</v>
+        <v>11026014204.7334</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11026014204.7334</v>
+        <v>42805635607.77148</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42805635607.77148</v>
+        <v>2067218048.523132</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1439576935.615601</v>
+        <v>8304088936.603027</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8304088936.603027</v>
+        <v>38404398157.53613</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>38404398157.53613</v>
+        <v>1439576935.615601</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1170854599.748962</v>
+        <v>6912471994.968262</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6912471994.968262</v>
+        <v>38277897641.16699</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>38277897641.16699</v>
+        <v>1170854599.748962</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1090710408.249329</v>
+        <v>6100075387.238037</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6100075387.238037</v>
+        <v>38146318604.77051</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>38146318604.77051</v>
+        <v>1090710408.249329</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>602134780.7738056</v>
+        <v>11317587638.79782</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11317587638.79782</v>
+        <v>22036666849.56127</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22036666849.56127</v>
+        <v>602134780.7738056</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1194280540.277344</v>
+        <v>6477768386.61792</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6477768386.61792</v>
+        <v>37996762182.35645</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37996762182.35645</v>
+        <v>1194280540.277344</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1630720024.278442</v>
+        <v>8853834297.246338</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8853834297.246338</v>
+        <v>37823384811.27441</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37823384811.27441</v>
+        <v>1630720024.278442</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1845620592.913208</v>
+        <v>9996479391.53418</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9996479391.53418</v>
+        <v>32818297507.38867</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32818297507.38867</v>
+        <v>1845620592.913208</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1876765033.60321</v>
+        <v>10107109171.35889</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10107109171.35889</v>
+        <v>32614365494.12891</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32614365494.12891</v>
+        <v>1876765033.60321</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1700834519.416504</v>
+        <v>9138609606.459229</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9138609606.459229</v>
+        <v>32413734800.4873</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32413734800.4873</v>
+        <v>1700834519.416504</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1572894797.96521</v>
+        <v>8480984004.623291</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8480984004.623291</v>
+        <v>32228383470.92285</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32228383470.92285</v>
+        <v>1572894797.96521</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1533360759.392944</v>
+        <v>8312912005.713867</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8312912005.713867</v>
+        <v>32066215080.98828</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32066215080.98828</v>
+        <v>1533360759.392944</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1225088617.754456</v>
+        <v>6688856252.662598</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6688856252.662598</v>
+        <v>25354595829.64941</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25354595829.64941</v>
+        <v>1225088617.754456</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1274860742.768311</v>
+        <v>6985334214.563721</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6985334214.563721</v>
+        <v>25243700950.17969</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25243700950.17969</v>
+        <v>1274860742.768311</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1373464973.937378</v>
+        <v>7486295600.017822</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7486295600.017822</v>
+        <v>25153847301.74219</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25153847301.74219</v>
+        <v>1373464973.937378</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Min.xlsx
+++ b/Final Demand/AIC/AIC_Min.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
+    <t>Offshore wind plants</t>
+  </si>
+  <si>
     <t>Onshore wind plants</t>
   </si>
   <si>
     <t>Photovoltaic plants</t>
-  </si>
-  <si>
-    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17980061712.64519</v>
+        <v>1377486416.783263</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25939804068.47028</v>
+        <v>17980061712.64519</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1377486416.783263</v>
+        <v>25939804068.47028</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7400383036.875977</v>
+        <v>1385264703.301025</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25079626525.81738</v>
+        <v>7400383036.875977</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1385264703.301025</v>
+        <v>25079626525.81738</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6356181909.988037</v>
+        <v>1229166728.378845</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25015560737.09277</v>
+        <v>6356181909.988037</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1229166728.378845</v>
+        <v>25015560737.09277</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13245594254.30417</v>
+        <v>1729281606.913317</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54028072618.58443</v>
+        <v>13245594254.30417</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1729281606.913317</v>
+        <v>54028072618.58443</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14164428588.20908</v>
+        <v>535940531.1659689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>81404108043.30713</v>
+        <v>14164428588.20908</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>535940531.1659689</v>
+        <v>81404108043.30713</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15179282528.9527</v>
+        <v>1316955016.973929</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47750964972.63586</v>
+        <v>15179282528.9527</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1316955016.973929</v>
+        <v>47750964972.63586</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12469335492.99747</v>
+        <v>4284931633.131479</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23814957678.16544</v>
+        <v>12469335492.99747</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4284931633.131479</v>
+        <v>23814957678.16544</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15232592131.07214</v>
+        <v>2265435762.51639</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14536655748.7717</v>
+        <v>15232592131.07214</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2265435762.51639</v>
+        <v>14536655748.7717</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13318717744.57767</v>
+        <v>11327370279.67697</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13690097306.98053</v>
+        <v>13318717744.57767</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11327370279.67697</v>
+        <v>13690097306.98053</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13716148403.4639</v>
+        <v>5279631787.948605</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9708379733.672028</v>
+        <v>13716148403.4639</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5279631787.948605</v>
+        <v>9708379733.672028</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13888695079.25766</v>
+        <v>6119827139.588688</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7944316511.236847</v>
+        <v>13888695079.25766</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6119827139.588688</v>
+        <v>7944316511.236847</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9276115544.928131</v>
+        <v>7037278188.644272</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10343242729.80591</v>
+        <v>9276115544.928131</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7037278188.644272</v>
+        <v>10343242729.80591</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7846528544.909435</v>
+        <v>37117897.44300002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>407753480.198209</v>
+        <v>7846528544.909435</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37117897.44300002</v>
+        <v>407753480.198209</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11554532200.90381</v>
+        <v>4996507218.411793</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18907094001.50526</v>
+        <v>11554532200.90381</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4996507218.411793</v>
+        <v>18907094001.50526</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10083733866.80612</v>
+        <v>6832607108.370712</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16617188745.66908</v>
+        <v>10083733866.80612</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6832607108.370712</v>
+        <v>16617188745.66908</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14581858543.15302</v>
+        <v>1542612773.187248</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20940142031.05086</v>
+        <v>14581858543.15302</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1542612773.187248</v>
+        <v>20940142031.05086</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18849665713.0585</v>
+        <v>2516687447.129654</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26373355471.94235</v>
+        <v>18849665713.0585</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2516687447.129654</v>
+        <v>26373355471.94235</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>42340756373.37326</v>
+        <v>7753490260.162231</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170937694411.3929</v>
+        <v>42340756373.37326</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7753490260.162231</v>
+        <v>170937694411.3929</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41395588128.02563</v>
+        <v>7517366781.929428</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>171213365049.5829</v>
+        <v>41395588128.02563</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7517366781.929428</v>
+        <v>171213365049.5829</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41837451925.76337</v>
+        <v>7408947899.708183</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>171479565469.6328</v>
+        <v>41837451925.76337</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7408947899.708183</v>
+        <v>171479565469.6328</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132579920083.4913</v>
+        <v>24415639440.03936</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543447337264.0591</v>
+        <v>132579920083.4913</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24415639440.03936</v>
+        <v>543447337264.0591</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132737730018.2872</v>
+        <v>24587114900.27647</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543635415738.3076</v>
+        <v>132737730018.2872</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24587114900.27647</v>
+        <v>543635415738.3076</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132579649945.1042</v>
+        <v>24606260532.81943</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543757443747.8684</v>
+        <v>132579649945.1042</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24606260532.81943</v>
+        <v>543757443747.8684</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9671167627.441425</v>
+        <v>676370575.6279999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>344203261.5780385</v>
+        <v>9671167627.441425</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>676370575.6279999</v>
+        <v>344203261.5780385</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132493238603.2104</v>
+        <v>24683343231.57608</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543808526468.1108</v>
+        <v>132493238603.2104</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24683343231.57608</v>
+        <v>543808526468.1108</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132360564088.7107</v>
+        <v>24689167687.87619</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543801525808.5977</v>
+        <v>132360564088.7107</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24689167687.87619</v>
+        <v>543801525808.5977</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117426783537.9554</v>
+        <v>21997709979.93277</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519297489274.9941</v>
+        <v>117426783537.9554</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21997709979.93277</v>
+        <v>519297489274.9941</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117698582509.3423</v>
+        <v>22202335094.57587</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519308638622.2739</v>
+        <v>117698582509.3423</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22202335094.57587</v>
+        <v>519308638622.2739</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117834980230.1438</v>
+        <v>22965253170.26816</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519452809202.3848</v>
+        <v>117834980230.1438</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22965253170.26816</v>
+        <v>519452809202.3848</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117665481252.6829</v>
+        <v>23359985136.55237</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519848845860.6523</v>
+        <v>117665481252.6829</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23359985136.55237</v>
+        <v>519848845860.6523</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117933110098.6128</v>
+        <v>23367738640.89264</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>520632527508.2725</v>
+        <v>117933110098.6128</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23367738640.89264</v>
+        <v>520632527508.2725</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14298368087.17773</v>
+        <v>3862267898.85498</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>87719408009.90039</v>
+        <v>14298368087.17773</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3862267898.85498</v>
+        <v>87719408009.90039</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14118583286.2019</v>
+        <v>2054588789.423218</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>89663031169.56934</v>
+        <v>14118583286.2019</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2054588789.423218</v>
+        <v>89663031169.56934</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13840026403.70117</v>
+        <v>2304332193.27887</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>92305173685.95215</v>
+        <v>13840026403.70117</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2304332193.27887</v>
+        <v>92305173685.95215</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7676332671.315521</v>
+        <v>863609747.1737996</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>971099725.0434961</v>
+        <v>7676332671.315521</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>863609747.1737996</v>
+        <v>971099725.0434961</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14150356851.07764</v>
+        <v>2508651641.589111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>95629276351.51953</v>
+        <v>14150356851.07764</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2508651641.589111</v>
+        <v>95629276351.51953</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15929729953.2063</v>
+        <v>2066119690.748779</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>99525422005.92969</v>
+        <v>15929729953.2063</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2066119690.748779</v>
+        <v>99525422005.92969</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4016984835.305664</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21652254014.60742</v>
+        <v>4016984835.305664</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>21652254014.60742</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7438605515.317139</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25994012143.60742</v>
+        <v>7438605515.317139</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>25994012143.60742</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11423213060.62695</v>
+        <v>1703176773.550659</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30058617763.2959</v>
+        <v>11423213060.62695</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1703176773.550659</v>
+        <v>30058617763.2959</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14318027286.13013</v>
+        <v>2908148792.265869</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33448701863.22168</v>
+        <v>14318027286.13013</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2908148792.265869</v>
+        <v>33448701863.22168</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17236269772.41138</v>
+        <v>3262901752.994568</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35754697573.70996</v>
+        <v>17236269772.41138</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3262901752.994568</v>
+        <v>35754697573.70996</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27986300909.32544</v>
+        <v>5203696268.272339</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36591069554.9541</v>
+        <v>27986300909.32544</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5203696268.272339</v>
+        <v>36591069554.9541</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31022945576.80811</v>
+        <v>5846916446.641968</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35640010078.82422</v>
+        <v>31022945576.80811</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5846916446.641968</v>
+        <v>35640010078.82422</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11264167462.98999</v>
+        <v>2191384179.823608</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32700929361.59277</v>
+        <v>11264167462.98999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2191384179.823608</v>
+        <v>32700929361.59277</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10163621845.63424</v>
+        <v>103930112.8404005</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2894040065.017703</v>
+        <v>10163621845.63424</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103930112.8404005</v>
+        <v>2894040065.017703</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>175075454.8696289</v>
+        <v>112035649.9522705</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27738465281.68359</v>
+        <v>175075454.8696289</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>112035649.9522705</v>
+        <v>27738465281.68359</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20916781703.69629</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>20916781703.69629</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12606954606.67969</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>12606954606.67969</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3358933807.119141</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3358933807.119141</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32110051813.81641</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>32110051813.81641</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41327312429.31738</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>41327312429.31738</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36781979137.6748</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>36781979137.6748</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5678712319.51416</v>
+        <v>488556230.7665405</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34302974257.10059</v>
+        <v>5678712319.51416</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>488556230.7665405</v>
+        <v>34302974257.10059</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9696589980.632774</v>
+        <v>2.384185791015625E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3986274662.110228</v>
+        <v>9696589980.632774</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.384185791015625E-07</v>
+        <v>3986274662.110228</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17426893193.94482</v>
+        <v>3043196561.588806</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33871970155.30176</v>
+        <v>17426893193.94482</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3043196561.588806</v>
+        <v>33871970155.30176</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17389866385.2876</v>
+        <v>3073753849.969299</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35313992400.65527</v>
+        <v>17389866385.2876</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3073753849.969299</v>
+        <v>35313992400.65527</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14159858404.25342</v>
+        <v>2399046320.358215</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30266080718.80273</v>
+        <v>14159858404.25342</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2399046320.358215</v>
+        <v>30266080718.80273</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14394344164.31958</v>
+        <v>2615611681.365173</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34398333087.45215</v>
+        <v>14394344164.31958</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2615611681.365173</v>
+        <v>34398333087.45215</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17967619470.24316</v>
+        <v>3508583946.259155</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39159283876.47754</v>
+        <v>17967619470.24316</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3508583946.259155</v>
+        <v>39159283876.47754</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19793228142.09155</v>
+        <v>4084010647.741638</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44036163776.51562</v>
+        <v>19793228142.09155</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4084010647.741638</v>
+        <v>44036163776.51562</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19923997129.78369</v>
+        <v>3968073248.731201</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48582106545.79102</v>
+        <v>19923997129.78369</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3968073248.731201</v>
+        <v>48582106545.79102</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17813858259.81689</v>
+        <v>3318948302.487</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44543046025.83594</v>
+        <v>17813858259.81689</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3318948302.487</v>
+        <v>44543046025.83594</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15379594397.70312</v>
+        <v>2834647035.473083</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47651731796.22656</v>
+        <v>15379594397.70312</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2834647035.473083</v>
+        <v>47651731796.22656</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8903594687.860596</v>
+        <v>1661977396.759094</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49975950852.17969</v>
+        <v>8903594687.860596</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1661977396.759094</v>
+        <v>49975950852.17969</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11614231857.39229</v>
+        <v>445414769.3160248</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3868451345.882563</v>
+        <v>11614231857.39229</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>445414769.3160248</v>
+        <v>3868451345.882563</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4667847310.610352</v>
+        <v>855815707.0860596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>51632536130.87695</v>
+        <v>4667847310.610352</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>855815707.0860596</v>
+        <v>51632536130.87695</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8089183257.005371</v>
+        <v>1467038514.959534</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>52788146061.64844</v>
+        <v>8089183257.005371</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1467038514.959534</v>
+        <v>52788146061.64844</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11189912949.15479</v>
+        <v>2043065030.057373</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47639059214.28809</v>
+        <v>11189912949.15479</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2043065030.057373</v>
+        <v>47639059214.28809</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12601548768.99414</v>
+        <v>2324346758.362854</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48266929515.01465</v>
+        <v>12601548768.99414</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2324346758.362854</v>
+        <v>48266929515.01465</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12687556119.41919</v>
+        <v>2348944689.930298</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48802013398.99023</v>
+        <v>12687556119.41919</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2348944689.930298</v>
+        <v>48802013398.99023</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12729155230.41553</v>
+        <v>2355013305.855591</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49306555339.25488</v>
+        <v>12729155230.41553</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2355013305.855591</v>
+        <v>49306555339.25488</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12860884424.20996</v>
+        <v>2373227571.290039</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49806350419.08496</v>
+        <v>12860884424.20996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2373227571.290039</v>
+        <v>49806350419.08496</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12180580598.36353</v>
+        <v>2230416980.945557</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46131422717.62207</v>
+        <v>12180580598.36353</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2230416980.945557</v>
+        <v>46131422717.62207</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13160088280.08203</v>
+        <v>2374921982.226746</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46582376537.46289</v>
+        <v>13160088280.08203</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2374921982.226746</v>
+        <v>46582376537.46289</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15042561906.80396</v>
+        <v>2678033313.142151</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46957086222.11719</v>
+        <v>15042561906.80396</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2678033313.142151</v>
+        <v>46957086222.11719</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13346239590.37695</v>
+        <v>449538980.1441698</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7211415062.851868</v>
+        <v>13346239590.37695</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>449538980.1441698</v>
+        <v>7211415062.851868</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16850734542.15625</v>
+        <v>3052594360.509338</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47222470379.86133</v>
+        <v>16850734542.15625</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3052594360.509338</v>
+        <v>47222470379.86133</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15807785027.40454</v>
+        <v>3002889785.896179</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47361918223.94824</v>
+        <v>15807785027.40454</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3002889785.896179</v>
+        <v>47361918223.94824</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11305550519.80371</v>
+        <v>2170204116.910645</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43317223214.91406</v>
+        <v>11305550519.80371</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2170204116.910645</v>
+        <v>43317223214.91406</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10247153055.27393</v>
+        <v>1975712770.467346</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43241608543.58789</v>
+        <v>10247153055.27393</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1975712770.467346</v>
+        <v>43241608543.58789</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11542233505.24316</v>
+        <v>2278505123.785461</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43108515561.94922</v>
+        <v>11542233505.24316</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2278505123.785461</v>
+        <v>43108515561.94922</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12117437170.31079</v>
+        <v>2375699653.511414</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42954653329.32227</v>
+        <v>12117437170.31079</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2375699653.511414</v>
+        <v>42954653329.32227</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11026014204.7334</v>
+        <v>2067218048.523132</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42805635607.77148</v>
+        <v>11026014204.7334</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2067218048.523132</v>
+        <v>42805635607.77148</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8304088936.603027</v>
+        <v>1439576935.615601</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38404398157.53613</v>
+        <v>8304088936.603027</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1439576935.615601</v>
+        <v>38404398157.53613</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6912471994.968262</v>
+        <v>1170854599.748962</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38277897641.16699</v>
+        <v>6912471994.968262</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1170854599.748962</v>
+        <v>38277897641.16699</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6100075387.238037</v>
+        <v>1090710408.249329</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38146318604.77051</v>
+        <v>6100075387.238037</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1090710408.249329</v>
+        <v>38146318604.77051</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11317587638.79782</v>
+        <v>602134780.7738056</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22036666849.56127</v>
+        <v>11317587638.79782</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>602134780.7738056</v>
+        <v>22036666849.56127</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6477768386.61792</v>
+        <v>1194280540.277344</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37996762182.35645</v>
+        <v>6477768386.61792</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1194280540.277344</v>
+        <v>37996762182.35645</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8853834297.246338</v>
+        <v>1630720024.278442</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37823384811.27441</v>
+        <v>8853834297.246338</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1630720024.278442</v>
+        <v>37823384811.27441</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9996479391.53418</v>
+        <v>1845620592.913208</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32818297507.38867</v>
+        <v>9996479391.53418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1845620592.913208</v>
+        <v>32818297507.38867</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10107109171.35889</v>
+        <v>1876765033.60321</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32614365494.12891</v>
+        <v>10107109171.35889</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1876765033.60321</v>
+        <v>32614365494.12891</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9138609606.459229</v>
+        <v>1700834519.416504</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32413734800.4873</v>
+        <v>9138609606.459229</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1700834519.416504</v>
+        <v>32413734800.4873</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8480984004.623291</v>
+        <v>1572894797.96521</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32228383470.92285</v>
+        <v>8480984004.623291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1572894797.96521</v>
+        <v>32228383470.92285</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8312912005.713867</v>
+        <v>1533360759.392944</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32066215080.98828</v>
+        <v>8312912005.713867</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1533360759.392944</v>
+        <v>32066215080.98828</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6688856252.662598</v>
+        <v>1225088617.754456</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25354595829.64941</v>
+        <v>6688856252.662598</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1225088617.754456</v>
+        <v>25354595829.64941</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6985334214.563721</v>
+        <v>1274860742.768311</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25243700950.17969</v>
+        <v>6985334214.563721</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1274860742.768311</v>
+        <v>25243700950.17969</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7486295600.017822</v>
+        <v>1373464973.937378</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25153847301.74219</v>
+        <v>7486295600.017822</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1373464973.937378</v>
+        <v>25153847301.74219</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Min.xlsx
+++ b/Final Demand/AIC/AIC_Min.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
-  </si>
-  <si>
     <t>Onshore wind plants</t>
   </si>
   <si>
     <t>Photovoltaic plants</t>
+  </si>
+  <si>
+    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1377486416.783263</v>
+        <v>17980.0617126452</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17980061712.64519</v>
+        <v>25939.80406847029</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25939804068.47028</v>
+        <v>1377.486416783263</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1385264703.301025</v>
+        <v>7400.383036876563</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7400383036.875977</v>
+        <v>25079.62652581558</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25079626525.81738</v>
+        <v>1385.264703301073</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1229166728.378845</v>
+        <v>6356.181909987237</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6356181909.988037</v>
+        <v>25015.56073709577</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25015560737.09277</v>
+        <v>1229.166728378739</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1729281606.913317</v>
+        <v>13245.59425430417</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13245594254.30417</v>
+        <v>54028.07261858444</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54028072618.58443</v>
+        <v>1729.281606913316</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>535940531.1659689</v>
+        <v>14164.42858820909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14164428588.20908</v>
+        <v>81404.10804330712</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>81404108043.30713</v>
+        <v>535.9405311659693</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1316955016.973929</v>
+        <v>15179.28252895272</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15179282528.9527</v>
+        <v>47750.96497263591</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47750964972.63586</v>
+        <v>1316.95501697393</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4284931633.131479</v>
+        <v>12469.33549299743</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12469335492.99747</v>
+        <v>23814.95767816543</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23814957678.16544</v>
+        <v>4284.93163313148</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2265435762.51639</v>
+        <v>15232.59213107216</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15232592131.07214</v>
+        <v>14536.65574877168</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14536655748.7717</v>
+        <v>2265.43576251639</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11327370279.67697</v>
+        <v>13318.71774457768</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13318717744.57767</v>
+        <v>13690.09730698049</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13690097306.98053</v>
+        <v>11327.37027967697</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5279631787.948605</v>
+        <v>13716.14840346391</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13716148403.4639</v>
+        <v>9708.379733672075</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9708379733.672028</v>
+        <v>5279.631787948605</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6119827139.588688</v>
+        <v>13888.69507925762</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13888695079.25766</v>
+        <v>7944.316511236859</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7944316511.236847</v>
+        <v>6119.82713958868</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7037278188.644272</v>
+        <v>9276.115544928121</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9276115544.928131</v>
+        <v>10343.24272980592</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10343242729.80591</v>
+        <v>7037.278188644268</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37117897.44300002</v>
+        <v>7846.528544909441</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7846528544.909435</v>
+        <v>407.7534801982089</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407753480.198209</v>
+        <v>37.117897443</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4996507218.411793</v>
+        <v>11554.53220090384</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11554532200.90381</v>
+        <v>18907.09400150525</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18907094001.50526</v>
+        <v>4996.507218411803</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6832607108.370712</v>
+        <v>10083.73386680608</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10083733866.80612</v>
+        <v>16617.1887456691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16617188745.66908</v>
+        <v>6832.607108370721</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1542612773.187248</v>
+        <v>14581.85854315301</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14581858543.15302</v>
+        <v>20940.14203105084</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20940142031.05086</v>
+        <v>1542.61277318724</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2516687447.129654</v>
+        <v>18849.66571305849</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18849665713.0585</v>
+        <v>26373.35547194234</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26373355471.94235</v>
+        <v>2516.687447129661</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7753490260.162231</v>
+        <v>42340.75637337327</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42340756373.37326</v>
+        <v>170937.6944113929</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>170937694411.3929</v>
+        <v>7753.490260162216</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7517366781.929428</v>
+        <v>41395.5881280257</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41395588128.02563</v>
+        <v>171213.365049583</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>171213365049.5829</v>
+        <v>7517.366781929442</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7408947899.708183</v>
+        <v>41837.45192576328</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41837451925.76337</v>
+        <v>171479.5654696326</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>171479565469.6328</v>
+        <v>7408.947899708168</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24415639440.03936</v>
+        <v>132579.9200834912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132579920083.4913</v>
+        <v>543447.337264059</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543447337264.0591</v>
+        <v>24415.63944003936</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24587114900.27647</v>
+        <v>132737.7300182873</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132737730018.2872</v>
+        <v>543635.4157383076</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543635415738.3076</v>
+        <v>24587.11490027649</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24606260532.81943</v>
+        <v>132579.6499451041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132579649945.1042</v>
+        <v>543757.4437478688</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543757443747.8684</v>
+        <v>24606.26053281942</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>676370575.6279999</v>
+        <v>9671.167627441413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9671167627.441425</v>
+        <v>344.203261578039</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>344203261.5780385</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24683343231.57608</v>
+        <v>132493.2386032105</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132493238603.2104</v>
+        <v>543808.5264681112</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543808526468.1108</v>
+        <v>24683.34323157609</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24689167687.87619</v>
+        <v>132360.5640887108</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132360564088.7107</v>
+        <v>543801.525808597</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>543801525808.5977</v>
+        <v>24689.16768787618</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21997709979.93277</v>
+        <v>117426.7835379554</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117426783537.9554</v>
+        <v>519297.4892749945</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519297489274.9941</v>
+        <v>21997.70997993278</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22202335094.57587</v>
+        <v>117698.5825093423</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117698582509.3423</v>
+        <v>519308.6386222737</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519308638622.2739</v>
+        <v>22202.33509457589</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22965253170.26816</v>
+        <v>117834.9802301438</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117834980230.1438</v>
+        <v>519452.8092023842</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519452809202.3848</v>
+        <v>22965.25317026817</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23359985136.55237</v>
+        <v>117665.4812526831</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117665481252.6829</v>
+        <v>519848.8458606526</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>519848845860.6523</v>
+        <v>23359.98513655234</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23367738640.89264</v>
+        <v>117933.1100986125</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117933110098.6128</v>
+        <v>520632.5275082747</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>520632527508.2725</v>
+        <v>23367.73864089267</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3862267898.85498</v>
+        <v>14298.36808717786</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14298368087.17773</v>
+        <v>87719.40800989978</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>87719408009.90039</v>
+        <v>3862.267898854916</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2054588789.423218</v>
+        <v>14118.58328620181</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14118583286.2019</v>
+        <v>89663.03116956819</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>89663031169.56934</v>
+        <v>2054.588789423287</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2304332193.27887</v>
+        <v>13840.02640370117</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13840026403.70117</v>
+        <v>92305.17368595209</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>92305173685.95215</v>
+        <v>2304.332193278824</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>863609747.1737996</v>
+        <v>7676.332671315526</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7676332671.315521</v>
+        <v>971.0997250434957</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>971099725.0434961</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2508651641.589111</v>
+        <v>14150.35685107787</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14150356851.07764</v>
+        <v>95629.27635151986</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>95629276351.51953</v>
+        <v>2508.651641589124</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2066119690.748779</v>
+        <v>15929.72995320591</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15929729953.2063</v>
+        <v>99525.42200592905</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>99525422005.92969</v>
+        <v>2066.119690748805</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4016.98483530595</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4016984835.305664</v>
+        <v>21652.25401460752</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21652254014.60742</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7438.605515317293</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7438605515.317139</v>
+        <v>25994.01214360818</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25994012143.60742</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1703176773.550659</v>
+        <v>11423.21306062676</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11423213060.62695</v>
+        <v>30058.61776329577</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30058617763.2959</v>
+        <v>1703.176773550629</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2908148792.265869</v>
+        <v>14318.02728613</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14318027286.13013</v>
+        <v>33448.70186321996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33448701863.22168</v>
+        <v>2908.148792265798</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3262901752.994568</v>
+        <v>17236.26977241179</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17236269772.41138</v>
+        <v>35754.6975737121</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35754697573.70996</v>
+        <v>3262.901752994629</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5203696268.272339</v>
+        <v>27986.30090932501</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27986300909.32544</v>
+        <v>36591.0695549529</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36591069554.9541</v>
+        <v>5203.696268272295</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5846916446.641968</v>
+        <v>31022.94557680818</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31022945576.80811</v>
+        <v>35640.01007882413</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35640010078.82422</v>
+        <v>5846.916446641961</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2191384179.823608</v>
+        <v>11264.16746298992</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11264167462.98999</v>
+        <v>32700.92936159484</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32700929361.59277</v>
+        <v>2191.384179823624</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>103930112.8404005</v>
+        <v>10163.62184563424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10163621845.63424</v>
+        <v>2894.040065017703</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2894040065.017703</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>112035649.9522705</v>
+        <v>175.0754548697732</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>175075454.8696289</v>
+        <v>27738.46528168302</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27738465281.68359</v>
+        <v>112.0356499522459</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20916.78170369565</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20916781703.69629</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12606.9546066802</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12606954606.67969</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3358.933807118796</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3358933807.119141</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>32110.05181381758</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32110051813.81641</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>41327.31242931541</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41327312429.31738</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>36781.97913767584</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>36781979137.6748</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>488556230.7665405</v>
+        <v>5678.712319514249</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5678712319.51416</v>
+        <v>34302.97425710037</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34302974257.10059</v>
+        <v>488.5562307665241</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.384185791015625E-07</v>
+        <v>9696.589980632758</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9696589980.632774</v>
+        <v>3986.274662110228</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3986274662.110228</v>
+        <v>4.547473508864641E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3043196561.588806</v>
+        <v>17426.89319394482</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17426893193.94482</v>
+        <v>33871.97015530057</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33871970155.30176</v>
+        <v>3043.196561588906</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3073753849.969299</v>
+        <v>17389.86638528737</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17389866385.2876</v>
+        <v>35313.99240065552</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>35313992400.65527</v>
+        <v>3073.753849969245</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2399046320.358215</v>
+        <v>14159.85840425361</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14159858404.25342</v>
+        <v>30266.08071880229</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30266080718.80273</v>
+        <v>2399.046320358233</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2615611681.365173</v>
+        <v>14394.34416431957</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14394344164.31958</v>
+        <v>34398.33308745176</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34398333087.45215</v>
+        <v>2615.611681365175</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3508583946.259155</v>
+        <v>17967.61947024288</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17967619470.24316</v>
+        <v>39159.2838764796</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>39159283876.47754</v>
+        <v>3508.58394625911</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4084010647.741638</v>
+        <v>19793.22814209154</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19793228142.09155</v>
+        <v>44036.16377651505</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44036163776.51562</v>
+        <v>4084.010647741612</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3968073248.731201</v>
+        <v>19923.9971297842</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19923997129.78369</v>
+        <v>48582.10654579103</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48582106545.79102</v>
+        <v>3968.073248731263</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3318948302.487</v>
+        <v>17813.85825981665</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17813858259.81689</v>
+        <v>44543.04602583498</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44543046025.83594</v>
+        <v>3318.948302487028</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2834647035.473083</v>
+        <v>15379.59439770319</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15379594397.70312</v>
+        <v>47651.7317962274</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47651731796.22656</v>
+        <v>2834.647035473085</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1661977396.759094</v>
+        <v>8903.594687860226</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8903594687.860596</v>
+        <v>49975.95085218083</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49975950852.17969</v>
+        <v>1661.97739675903</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>445414769.3160248</v>
+        <v>11614.2318573923</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11614231857.39229</v>
+        <v>3868.451345882564</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3868451345.882563</v>
+        <v>445.4147693160244</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>855815707.0860596</v>
+        <v>4667.847310610814</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4667847310.610352</v>
+        <v>51632.53613087628</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>51632536130.87695</v>
+        <v>855.8157070860616</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1467038514.959534</v>
+        <v>8089.183257005177</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8089183257.005371</v>
+        <v>52788.14606164955</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>52788146061.64844</v>
+        <v>1467.038514959568</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2043065030.057373</v>
+        <v>11189.91294915508</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11189912949.15479</v>
+        <v>47639.05921428837</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47639059214.28809</v>
+        <v>2043.065030057391</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2324346758.362854</v>
+        <v>12601.54876899347</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12601548768.99414</v>
+        <v>48266.92951501347</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48266929515.01465</v>
+        <v>2324.346758362837</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2348944689.930298</v>
+        <v>12687.5561194194</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12687556119.41919</v>
+        <v>48802.01339899004</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48802013398.99023</v>
+        <v>2348.9446899303</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2355013305.855591</v>
+        <v>12729.15523041575</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12729155230.41553</v>
+        <v>49306.55533925537</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49306555339.25488</v>
+        <v>2355.013305855566</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2373227571.290039</v>
+        <v>12860.88442421029</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12860884424.20996</v>
+        <v>49806.35041908454</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49806350419.08496</v>
+        <v>2373.227571290045</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2230416980.945557</v>
+        <v>12180.58059836319</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12180580598.36353</v>
+        <v>46131.42271762155</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46131422717.62207</v>
+        <v>2230.416980945563</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2374921982.226746</v>
+        <v>13160.08828008198</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13160088280.08203</v>
+        <v>46582.37653746456</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46582376537.46289</v>
+        <v>2374.921982226777</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2678033313.142151</v>
+        <v>15042.5619068041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15042561906.80396</v>
+        <v>46957.08622211404</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46957086222.11719</v>
+        <v>2678.033313142136</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>449538980.1441698</v>
+        <v>13346.23959037698</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13346239590.37695</v>
+        <v>7211.415062851869</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7211415062.851868</v>
+        <v>449.5389801441697</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3052594360.509338</v>
+        <v>16850.7345421561</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16850734542.15625</v>
+        <v>47222.47037986387</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47222470379.86133</v>
+        <v>3052.594360509363</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3002889785.896179</v>
+        <v>15807.78502740455</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15807785027.40454</v>
+        <v>47361.91822394729</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47361918223.94824</v>
+        <v>3002.889785896172</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2170204116.910645</v>
+        <v>11305.55051980354</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11305550519.80371</v>
+        <v>43317.22321491316</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43317223214.91406</v>
+        <v>2170.204116910696</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1975712770.467346</v>
+        <v>10247.15305527416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10247153055.27393</v>
+        <v>43241.60854358878</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43241608543.58789</v>
+        <v>1975.712770467275</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2278505123.785461</v>
+        <v>11542.23350524274</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11542233505.24316</v>
+        <v>43108.51556194946</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43108515561.94922</v>
+        <v>2278.505123785406</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2375699653.511414</v>
+        <v>12117.43717031111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12117437170.31079</v>
+        <v>42954.65332932211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42954653329.32227</v>
+        <v>2375.699653511401</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2067218048.523132</v>
+        <v>11026.01420473377</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11026014204.7334</v>
+        <v>42805.63560777158</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>42805635607.77148</v>
+        <v>2067.218048523122</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1439576935.615601</v>
+        <v>8304.08893660293</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8304088936.603027</v>
+        <v>38404.39815753698</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>38404398157.53613</v>
+        <v>1439.576935615682</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1170854599.748962</v>
+        <v>6912.471994967898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6912471994.968262</v>
+        <v>38277.89764116704</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>38277897641.16699</v>
+        <v>1170.854599748971</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1090710408.249329</v>
+        <v>6100.075387238525</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6100075387.238037</v>
+        <v>38146.31860477105</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>38146318604.77051</v>
+        <v>1090.710408249288</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>602134780.7738056</v>
+        <v>11317.58763879779</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11317587638.79782</v>
+        <v>22036.66684956126</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22036666849.56127</v>
+        <v>602.1347807738057</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1194280540.277344</v>
+        <v>6477.768386617769</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6477768386.61792</v>
+        <v>37996.76218235493</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37996762182.35645</v>
+        <v>1194.280540277308</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1630720024.278442</v>
+        <v>8853.8342972463</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8853834297.246338</v>
+        <v>37823.38481127471</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37823384811.27441</v>
+        <v>1630.720024278446</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1845620592.913208</v>
+        <v>9996.479391533881</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9996479391.53418</v>
+        <v>32818.29750738759</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32818297507.38867</v>
+        <v>1845.620592913241</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1876765033.60321</v>
+        <v>10107.10917135887</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10107109171.35889</v>
+        <v>32614.36549413018</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32614365494.12891</v>
+        <v>1876.765033603238</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1700834519.416504</v>
+        <v>9138.609606459737</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9138609606.459229</v>
+        <v>32413.73480048683</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32413734800.4873</v>
+        <v>1700.834519416443</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1572894797.96521</v>
+        <v>8480.984004623257</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8480984004.623291</v>
+        <v>32228.38347092457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32228383470.92285</v>
+        <v>1572.894797965302</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1533360759.392944</v>
+        <v>8312.912005713675</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8312912005.713867</v>
+        <v>32066.21508098766</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>32066215080.98828</v>
+        <v>1533.360759392905</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1225088617.754456</v>
+        <v>6688.856252662372</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6688856252.662598</v>
+        <v>25354.5958296489</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25354595829.64941</v>
+        <v>1225.088617754518</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1274860742.768311</v>
+        <v>6985.334214563947</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6985334214.563721</v>
+        <v>25243.70095017925</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25243700950.17969</v>
+        <v>1274.860742768273</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1373464973.937378</v>
+        <v>7486.295600017533</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7486295600.017822</v>
+        <v>25153.84730174206</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25153847301.74219</v>
+        <v>1373.464973937371</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Min.xlsx
+++ b/Final Demand/AIC/AIC_Min.xlsx
@@ -149,10 +149,10 @@
     <t>Onshore wind plants</t>
   </si>
   <si>
-    <t>Photovoltaic plants</t>
+    <t>Offshore wind plants</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
+    <t>Photovoltaic plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17980.0617126452</v>
+        <v>17980.06171661432</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25939.80406847029</v>
+        <v>1377.486416816264</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1377.486416783263</v>
+        <v>25942.01318245817</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7400.383036876563</v>
+        <v>70131.86938248668</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25079.62652581558</v>
+        <v>16152.14519292919</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1385.264703301073</v>
+        <v>441654.3496927824</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6356.181909987237</v>
+        <v>66068.89659177093</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25015.56073709577</v>
+        <v>14839.01524847432</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1229.166728378739</v>
+        <v>441283.6108581517</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13245.59425430417</v>
+        <v>13245.5943131767</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54028.07261858444</v>
+        <v>1729.28160751158</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1729.281606913316</v>
+        <v>54033.09681958084</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14164.42858820909</v>
+        <v>14164.42922402589</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>81404.10804330712</v>
+        <v>535.9405389164494</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>535.9405311659693</v>
+        <v>81414.68414861253</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15179.28252895272</v>
+        <v>15179.28787411324</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47750.96497263591</v>
+        <v>1316.955093416698</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1316.95501697393</v>
+        <v>47772.08125848576</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12469.33549299743</v>
+        <v>12469.372179456</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23814.95767816543</v>
+        <v>4284.93223558002</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4284.93163313148</v>
+        <v>23855.5593439771</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15232.59213107216</v>
+        <v>15232.80507862195</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14536.65574877168</v>
+        <v>2265.43970103711</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2265.43576251639</v>
+        <v>14612.54935797252</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13318.71774457768</v>
+        <v>13319.79145781131</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13690.09730698049</v>
+        <v>11327.39227382107</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11327.37027967697</v>
+        <v>13828.20575891138</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13716.14840346391</v>
+        <v>13720.94967870839</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9708.379733672075</v>
+        <v>5279.739168537682</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5279.631787948605</v>
+        <v>9951.691986317048</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13888.69507925762</v>
+        <v>13908.04432914784</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7944.316511236859</v>
+        <v>6120.294040775963</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6119.82713958868</v>
+        <v>8356.883396370322</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9276.115544928121</v>
+        <v>9347.226755352662</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10343.24272980592</v>
+        <v>7039.112678919686</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7037.278188644268</v>
+        <v>11014.84799362268</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>407.7534801982089</v>
+        <v>37.117897443</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37.117897443</v>
+        <v>407.7534801982089</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11554.53220090384</v>
+        <v>11794.3395560784</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18907.09400150525</v>
+        <v>5003.088246098487</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4996.507218411803</v>
+        <v>19957.28707646469</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10083.73386680608</v>
+        <v>10822.52404755281</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16617.1887456691</v>
+        <v>6854.249484387205</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6832.607108370721</v>
+        <v>18198.225495776</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14581.85854315301</v>
+        <v>16605.04131637796</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20940.14203105084</v>
+        <v>1607.29075474781</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1542.61277318724</v>
+        <v>23238.26268590843</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18849.66571305849</v>
+        <v>23431.10574141127</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26373.35547194234</v>
+        <v>2686.151251713629</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2516.687447129661</v>
+        <v>29607.76508179479</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>42340.75637337327</v>
+        <v>49940.93778352297</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>170937.6944113929</v>
+        <v>8110.543152243634</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7753.490260162216</v>
+        <v>175356.5029045283</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41395.5881280257</v>
+        <v>50350.62573273494</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>171213.365049583</v>
+        <v>8035.962846193601</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7517.366781929442</v>
+        <v>177085.5945479852</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41837.45192576328</v>
+        <v>51202.17748231569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>171479.5654696326</v>
+        <v>7852.963657969689</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7408.947899708168</v>
+        <v>179082.5117118655</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132579.9200834912</v>
+        <v>142796.1974042125</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543447.337264059</v>
+        <v>24676.65601035481</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24415.63944003936</v>
+        <v>553049.739526384</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132737.7300182873</v>
+        <v>143910.7590928436</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543635.4157383076</v>
+        <v>24882.79780110045</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24587.11490027649</v>
+        <v>555478.4303265321</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132579.6499451041</v>
+        <v>144867.2410706528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543757.4437478688</v>
+        <v>25108.08523202629</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24606.26053281942</v>
+        <v>558034.8853500122</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>344.203261578039</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>676.3705756279999</v>
+        <v>344.203261578039</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132493.2386032105</v>
+        <v>145737.3133448312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543808.5264681112</v>
+        <v>25410.4553978731</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24683.34323157609</v>
+        <v>560650.7357146251</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132360.5640887108</v>
+        <v>146474.7180730011</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>543801.525808597</v>
+        <v>25718.65018083408</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24689.16768787618</v>
+        <v>563271.3554663807</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117426.7835379554</v>
+        <v>132278.3701751609</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519297.4892749945</v>
+        <v>23335.38792891792</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21997.70997993278</v>
+        <v>541404.2339852522</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117698.5825093423</v>
+        <v>132067.7705806859</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519308.6386222737</v>
+        <v>23697.01184702868</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22202.33509457589</v>
+        <v>544044.9275383931</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117834.9802301438</v>
+        <v>131993.9433658856</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519452.8092023842</v>
+        <v>24821.56369666682</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22965.25317026817</v>
+        <v>546859.0562194772</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117665.4812526831</v>
+        <v>131751.867925436</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>519848.8458606526</v>
+        <v>26340.88193733688</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23359.98513655234</v>
+        <v>550107.2141491193</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>117933.1100986125</v>
+        <v>131781.3329826517</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>520632.5275082747</v>
+        <v>27868.06651153823</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23367.73864089267</v>
+        <v>554187.364280195</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14298.36808717786</v>
+        <v>28187.47023974243</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>87719.40800989978</v>
+        <v>9890.126205121691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3862.267898854916</v>
+        <v>125414.5775416903</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14118.58328620181</v>
+        <v>27652.03486913675</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>89663.03116956819</v>
+        <v>9222.911395073694</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2054.588789423287</v>
+        <v>132879.1910405736</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13840.02640370117</v>
+        <v>26914.7352229848</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>92305.17368595209</v>
+        <v>8808.040320472675</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2304.332193278824</v>
+        <v>143073.8483812977</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>971.0997250434957</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>863.6097471737995</v>
+        <v>971.0998343863937</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14150.35685107787</v>
+        <v>26659.52672725217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>95629.27635151986</v>
+        <v>8603.738375757821</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2508.651641589124</v>
+        <v>156695.7381860884</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15929.72995320591</v>
+        <v>28519.9784954926</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>99525.42200592905</v>
+        <v>7970.29939044721</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2066.119690748805</v>
+        <v>174332.4957177695</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4016.98483530595</v>
+        <v>19010.68470776523</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21652.25401460752</v>
+        <v>4705.656677972351</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>114230.3299677838</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7438.605515317293</v>
+        <v>27553.9219898826</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25994.01214360818</v>
+        <v>4412.896708631481</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>140756.0215122448</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11423.21306062676</v>
+        <v>40439.98284527031</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30058.61776329577</v>
+        <v>6098.279484983417</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1703.176773550629</v>
+        <v>171510.233811317</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14318.02728613</v>
+        <v>55918.34493954526</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33448.70186321996</v>
+        <v>8979.037941489252</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2908.148792265798</v>
+        <v>205832.6799583575</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17236.26977241179</v>
+        <v>73613.03365775803</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35754.6975737121</v>
+        <v>12145.6347256779</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3262.901752994629</v>
+        <v>242653.9011528129</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27986.30090932501</v>
+        <v>101697.7824250746</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36591.0695549529</v>
+        <v>17183.33474112826</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5203.696268272295</v>
+        <v>280520.6583112758</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31022.94557680818</v>
+        <v>132887.0479086454</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35640.01007882413</v>
+        <v>22893.5745606916</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5846.916446641961</v>
+        <v>317665.7562093548</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11264.16746298992</v>
+        <v>144409.0577372424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32700.92936159484</v>
+        <v>25065.67187567457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2191.384179823624</v>
+        <v>352128.1263325829</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2894.040065017703</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103.9301128404004</v>
+        <v>2894.043223348993</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>175.0754548697732</v>
+        <v>144818.1494383384</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27738.46528168302</v>
+        <v>25258.89207261195</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>112.0356499522459</v>
+        <v>381921.6226475704</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>143216.2219514835</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20916.78170369565</v>
+        <v>25164.27848452498</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>405238.6278289426</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>139100.6798719119</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12606.9546066802</v>
+        <v>24722.81752983108</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>420661.2188534532</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>133707.3589962495</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3358.933807118796</v>
+        <v>24252.38243112998</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>427343.9720699284</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>129769.6387492765</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24378.47086887638</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>425133.2305770265</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>123361.9791925743</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24380.24119278282</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>414599.2384559726</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>107389.739202596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32110.05181381758</v>
+        <v>22680.09828819626</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>452373.1795588732</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>76254.15344303357</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41327.31242931541</v>
+        <v>17860.39597932465</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>445101.5390142137</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>58915.40656622266</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36781.97913767584</v>
+        <v>14988.8339191447</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>418947.6929995697</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5678.712319514249</v>
+        <v>46068.58369935933</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34302.97425710037</v>
+        <v>12362.3808989228</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>488.5562307665241</v>
+        <v>391855.4476747504</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3986.274662110228</v>
+        <v>4.547473508864641E-13</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.547473508864641E-13</v>
+        <v>3986.297117111728</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17426.89319394482</v>
+        <v>45182.36617776565</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33871.97015530057</v>
+        <v>11713.88227675308</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3043.196561588906</v>
+        <v>366059.940339515</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17389.86638528737</v>
+        <v>45026.61117593385</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35313.99240065552</v>
+        <v>10947.20476276259</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3073.753849969245</v>
+        <v>343585.381803778</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14159.85840425361</v>
+        <v>43278.40569460555</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30266.08071880229</v>
+        <v>9497.015400545963</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2399.046320358233</v>
+        <v>318035.481980809</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14394.34416431957</v>
+        <v>46369.59589593275</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34398.33308745176</v>
+        <v>8778.256979641796</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2615.611681365175</v>
+        <v>306653.9218259966</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17967.61947024288</v>
+        <v>56164.36234210827</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39159.2838764796</v>
+        <v>9562.586578597955</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3508.58394625911</v>
+        <v>301935.1383688878</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19793.22814209154</v>
+        <v>71174.19577349676</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44036.16377651505</v>
+        <v>11852.72801458149</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4084.010647741612</v>
+        <v>303795.3595477929</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19923.9971297842</v>
+        <v>89622.74926294852</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48582.10654579103</v>
+        <v>15121.02337803511</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3968.073248731263</v>
+        <v>311580.7440927587</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17813.85825981665</v>
+        <v>109272.1725870853</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44543.04602583498</v>
+        <v>18669.19621342258</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3318.948302487028</v>
+        <v>316260.7857386684</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15379.59439770319</v>
+        <v>131903.9271523869</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47651.7317962274</v>
+        <v>22793.46198474546</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2834.647035473085</v>
+        <v>332366.5316504007</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8903.594687860226</v>
+        <v>149068.1880763515</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49975.95085218083</v>
+        <v>25983.6074810921</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1661.97739675903</v>
+        <v>350527.8049822757</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11614.2318573923</v>
+        <v>11614.23185739234</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3868.451345882564</v>
+        <v>445.4147693160246</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>445.4147693160244</v>
+        <v>3868.545397578686</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4667.847310610814</v>
+        <v>156269.9460240649</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>51632.53613087628</v>
+        <v>27425.57591910369</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>855.8157070860616</v>
+        <v>369376.0241382997</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8089.183257005177</v>
+        <v>156343.9255842268</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>52788.14606164955</v>
+        <v>27651.47821080231</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1467.038514959568</v>
+        <v>387696.3174826782</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11189.91294915508</v>
+        <v>151798.5744583495</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47639.05921428837</v>
+        <v>27153.27949058829</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2043.065030057391</v>
+        <v>398505.6105955066</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12601.54876899347</v>
+        <v>147076.6185887659</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48266.92951501347</v>
+        <v>26802.7861168313</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2324.346758362837</v>
+        <v>412959.5384959569</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12687.5561194194</v>
+        <v>140892.5544645472</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48802.01339899004</v>
+        <v>26407.15794495074</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2348.9446899303</v>
+        <v>424535.6192610683</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12729.15523041575</v>
+        <v>132250.5866403743</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49306.55533925537</v>
+        <v>25766.12217648071</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2355.013305855566</v>
+        <v>432918.5217648316</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12860.88442421029</v>
+        <v>118765.1428134043</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49806.35041908454</v>
+        <v>24302.40681046725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2373.227571290045</v>
+        <v>438020.4741276773</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12180.58059836319</v>
+        <v>98817.91614244413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46131.42271762155</v>
+        <v>21478.45084387728</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2230.416980945563</v>
+        <v>435797.7495719846</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13160.08828008198</v>
+        <v>79255.4293271366</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46582.37653746456</v>
+        <v>18338.43594886601</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2374.921982226777</v>
+        <v>434880.3305504983</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15042.5619068041</v>
+        <v>65671.65577796381</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46957.08622211404</v>
+        <v>15830.58043265302</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2678.033313142136</v>
+        <v>431553.3555781329</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13346.23959037698</v>
+        <v>13346.23959038145</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7211.415062851869</v>
+        <v>449.5389801441947</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>449.5389801441697</v>
+        <v>7211.723657495722</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16850.7345421561</v>
+        <v>58913.90894671669</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47222.47037986387</v>
+        <v>14182.86466396123</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3052.594360509363</v>
+        <v>426381.1584209185</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15807.78502740455</v>
+        <v>57202.16694032541</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47361.91822394729</v>
+        <v>13181.31869452243</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3002.889785896172</v>
+        <v>420009.6434799703</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11305.55051980354</v>
+        <v>56944.85477147507</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43317.22321491316</v>
+        <v>12220.53341741889</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2170.204116910696</v>
+        <v>409068.0641080616</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10247.15305527416</v>
+        <v>60205.72423674562</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43241.60854358878</v>
+        <v>11780.31417815195</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1975.712770467275</v>
+        <v>402385.6777226292</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11542.23350524274</v>
+        <v>67934.23833606928</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43108.51556194946</v>
+        <v>12247.35715746298</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2278.505123785406</v>
+        <v>396564.9133234164</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12117.43717031111</v>
+        <v>80639.08438153123</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42954.65332932211</v>
+        <v>13920.19270630711</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2375.699653511401</v>
+        <v>392186.9346025297</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11026.01420473377</v>
+        <v>97117.0518526088</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42805.63560777158</v>
+        <v>16617.67878144636</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2067.218048523122</v>
+        <v>389698.1463011019</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8304.08893660293</v>
+        <v>114542.1804396708</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38404.39815753698</v>
+        <v>19699.14316671778</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1439.576935615682</v>
+        <v>385102.2506491141</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6912.471994967898</v>
+        <v>133182.7469359604</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38277.89764116704</v>
+        <v>23096.79690914671</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1170.854599748971</v>
+        <v>387001.0283102132</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6100.075387238525</v>
+        <v>149296.1613556889</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38146.31860477105</v>
+        <v>26091.74238981795</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1090.710408249288</v>
+        <v>390996.0604038686</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11317.58763879779</v>
+        <v>11317.58763897448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22036.66684956126</v>
+        <v>602.1347807750003</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>602.1347807738057</v>
+        <v>22037.54310490617</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6477.768386617769</v>
+        <v>159578.0941036562</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37996.76218235493</v>
+        <v>28094.27601522108</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1194.280540277308</v>
+        <v>396777.9627713999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8853.8342972463</v>
+        <v>162982.7985254526</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37823.38481127471</v>
+        <v>28932.97545166989</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1630.720024278446</v>
+        <v>403903.9058354245</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9996.479391533881</v>
+        <v>159964.6111650821</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32818.29750738759</v>
+        <v>28713.49761563307</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1845.620592913241</v>
+        <v>407041.0535236793</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10107.10917135887</v>
+        <v>155172.3383068168</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32614.36549413018</v>
+        <v>28322.94476249616</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1876.765033603238</v>
+        <v>415267.4014553828</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9138.609606459737</v>
+        <v>148514.4881374869</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32413.73480048683</v>
+        <v>27760.6810236607</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1700.834519416443</v>
+        <v>423254.5680594314</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8480.984004623257</v>
+        <v>139520.9730586181</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32228.38347092457</v>
+        <v>26916.16132889153</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1572.894797965302</v>
+        <v>430552.3390229605</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8312.912005713675</v>
+        <v>127290.199307852</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32066.21508098766</v>
+        <v>25531.38312137098</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1533.360759392905</v>
+        <v>436805.4616338257</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6688.856252662372</v>
+        <v>110113.9110767017</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25354.5958296489</v>
+        <v>23134.67137150594</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1225.088617754518</v>
+        <v>435194.4611160979</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6985.334214563947</v>
+        <v>93426.98338691518</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25243.70095017925</v>
+        <v>20563.74548516661</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1274.860742768273</v>
+        <v>438744.3100090381</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7486.295600017533</v>
+        <v>79267.27660151944</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25153.84730174206</v>
+        <v>18085.79670782201</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1373.464973937371</v>
+        <v>440867.1995893903</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Min.xlsx
+++ b/Final Demand/AIC/AIC_Min.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
+    <t>Photovoltaic plants</t>
+  </si>
+  <si>
     <t>Onshore wind plants</t>
   </si>
   <si>
     <t>Offshore wind plants</t>
-  </si>
-  <si>
-    <t>Photovoltaic plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17980.06171661432</v>
+        <v>25942.01318245817</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1377.486416816264</v>
+        <v>17980.06171661432</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25942.01318245817</v>
+        <v>1377.486416816264</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>70131.86938248668</v>
+        <v>441654.3496927824</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16152.14519292919</v>
+        <v>70131.86938248668</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>441654.3496927824</v>
+        <v>16152.14519292919</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>66068.89659177093</v>
+        <v>441283.6108581517</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14839.01524847432</v>
+        <v>66068.89659177093</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>441283.6108581517</v>
+        <v>14839.01524847432</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13245.5943131767</v>
+        <v>54033.09681958084</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1729.28160751158</v>
+        <v>13245.5943131767</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54033.09681958084</v>
+        <v>1729.28160751158</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14164.42922402589</v>
+        <v>81414.68414861253</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>535.9405389164494</v>
+        <v>14164.42922402589</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>81414.68414861253</v>
+        <v>535.9405389164494</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15179.28787411324</v>
+        <v>47772.08125848576</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1316.955093416698</v>
+        <v>15179.28787411324</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47772.08125848576</v>
+        <v>1316.955093416698</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12469.372179456</v>
+        <v>23855.5593439771</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4284.93223558002</v>
+        <v>12469.372179456</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23855.5593439771</v>
+        <v>4284.93223558002</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15232.80507862195</v>
+        <v>14612.54935797252</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2265.43970103711</v>
+        <v>15232.80507862195</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14612.54935797252</v>
+        <v>2265.43970103711</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13319.79145781131</v>
+        <v>13828.20575891138</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11327.39227382107</v>
+        <v>13319.79145781131</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13828.20575891138</v>
+        <v>11327.39227382107</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13720.94967870839</v>
+        <v>9951.691986317048</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5279.739168537682</v>
+        <v>13720.94967870839</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9951.691986317048</v>
+        <v>5279.739168537682</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13908.04432914784</v>
+        <v>8356.883396370322</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6120.294040775963</v>
+        <v>13908.04432914784</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8356.883396370322</v>
+        <v>6120.294040775963</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9347.226755352662</v>
+        <v>11014.84799362268</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7039.112678919686</v>
+        <v>9347.226755352662</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11014.84799362268</v>
+        <v>7039.112678919686</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7846.528544909441</v>
+        <v>407.7534801982089</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37.117897443</v>
+        <v>7846.528544909441</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407.7534801982089</v>
+        <v>37.117897443</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11794.3395560784</v>
+        <v>19957.28707646469</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5003.088246098487</v>
+        <v>11794.3395560784</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19957.28707646469</v>
+        <v>5003.088246098487</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10822.52404755281</v>
+        <v>18198.225495776</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6854.249484387205</v>
+        <v>10822.52404755281</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18198.225495776</v>
+        <v>6854.249484387205</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16605.04131637796</v>
+        <v>23238.26268590843</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1607.29075474781</v>
+        <v>16605.04131637796</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23238.26268590843</v>
+        <v>1607.29075474781</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23431.10574141127</v>
+        <v>29607.76508179479</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2686.151251713629</v>
+        <v>23431.10574141127</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29607.76508179479</v>
+        <v>2686.151251713629</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>49940.93778352297</v>
+        <v>175356.5029045283</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8110.543152243634</v>
+        <v>49940.93778352297</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>175356.5029045283</v>
+        <v>8110.543152243634</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>50350.62573273494</v>
+        <v>177085.5945479852</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8035.962846193601</v>
+        <v>50350.62573273494</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>177085.5945479852</v>
+        <v>8035.962846193601</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>51202.17748231569</v>
+        <v>179082.5117118655</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7852.963657969689</v>
+        <v>51202.17748231569</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>179082.5117118655</v>
+        <v>7852.963657969689</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>142796.1974042125</v>
+        <v>553049.739526384</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24676.65601035481</v>
+        <v>142796.1974042125</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>553049.739526384</v>
+        <v>24676.65601035481</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>143910.7590928436</v>
+        <v>555478.4303265321</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24882.79780110045</v>
+        <v>143910.7590928436</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>555478.4303265321</v>
+        <v>24882.79780110045</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>144867.2410706528</v>
+        <v>558034.8853500122</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25108.08523202629</v>
+        <v>144867.2410706528</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>558034.8853500122</v>
+        <v>25108.08523202629</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9671.167627441413</v>
+        <v>344.203261578039</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>676.3705756279999</v>
+        <v>9671.167627441413</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>344.203261578039</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>145737.3133448312</v>
+        <v>560650.7357146251</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25410.4553978731</v>
+        <v>145737.3133448312</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>560650.7357146251</v>
+        <v>25410.4553978731</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>146474.7180730011</v>
+        <v>563271.3554663807</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25718.65018083408</v>
+        <v>146474.7180730011</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>563271.3554663807</v>
+        <v>25718.65018083408</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132278.3701751609</v>
+        <v>541404.2339852522</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23335.38792891792</v>
+        <v>132278.3701751609</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>541404.2339852522</v>
+        <v>23335.38792891792</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132067.7705806859</v>
+        <v>544044.9275383931</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23697.01184702868</v>
+        <v>132067.7705806859</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>544044.9275383931</v>
+        <v>23697.01184702868</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>131993.9433658856</v>
+        <v>546859.0562194772</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24821.56369666682</v>
+        <v>131993.9433658856</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>546859.0562194772</v>
+        <v>24821.56369666682</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>131751.867925436</v>
+        <v>550107.2141491193</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26340.88193733688</v>
+        <v>131751.867925436</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>550107.2141491193</v>
+        <v>26340.88193733688</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>131781.3329826517</v>
+        <v>554187.364280195</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27868.06651153823</v>
+        <v>131781.3329826517</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>554187.364280195</v>
+        <v>27868.06651153823</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28187.47023974243</v>
+        <v>125414.5775416903</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9890.126205121691</v>
+        <v>28187.47023974243</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>125414.5775416903</v>
+        <v>9890.126205121691</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27652.03486913675</v>
+        <v>132879.1910405736</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9222.911395073694</v>
+        <v>27652.03486913675</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132879.1910405736</v>
+        <v>9222.911395073694</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26914.7352229848</v>
+        <v>143073.8483812977</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8808.040320472675</v>
+        <v>26914.7352229848</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>143073.8483812977</v>
+        <v>8808.040320472675</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7676.332671315526</v>
+        <v>971.0998343863937</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>863.6097471737995</v>
+        <v>7676.332671315526</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>971.0998343863937</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26659.52672725217</v>
+        <v>156695.7381860884</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8603.738375757821</v>
+        <v>26659.52672725217</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>156695.7381860884</v>
+        <v>8603.738375757821</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28519.9784954926</v>
+        <v>174332.4957177695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7970.29939044721</v>
+        <v>28519.9784954926</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>174332.4957177695</v>
+        <v>7970.29939044721</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19010.68470776523</v>
+        <v>114230.3299677838</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4705.656677972351</v>
+        <v>19010.68470776523</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>114230.3299677838</v>
+        <v>4705.656677972351</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27553.9219898826</v>
+        <v>140756.0215122448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4412.896708631481</v>
+        <v>27553.9219898826</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>140756.0215122448</v>
+        <v>4412.896708631481</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>40439.98284527031</v>
+        <v>171510.233811317</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6098.279484983417</v>
+        <v>40439.98284527031</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>171510.233811317</v>
+        <v>6098.279484983417</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>55918.34493954526</v>
+        <v>205832.6799583575</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8979.037941489252</v>
+        <v>55918.34493954526</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>205832.6799583575</v>
+        <v>8979.037941489252</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>73613.03365775803</v>
+        <v>242653.9011528129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12145.6347256779</v>
+        <v>73613.03365775803</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>242653.9011528129</v>
+        <v>12145.6347256779</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>101697.7824250746</v>
+        <v>280520.6583112758</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17183.33474112826</v>
+        <v>101697.7824250746</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>280520.6583112758</v>
+        <v>17183.33474112826</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132887.0479086454</v>
+        <v>317665.7562093548</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22893.5745606916</v>
+        <v>132887.0479086454</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>317665.7562093548</v>
+        <v>22893.5745606916</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>144409.0577372424</v>
+        <v>352128.1263325829</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25065.67187567457</v>
+        <v>144409.0577372424</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>352128.1263325829</v>
+        <v>25065.67187567457</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10163.62184563424</v>
+        <v>2894.043223348993</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>103.9301128404004</v>
+        <v>10163.62184563424</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2894.043223348993</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>144818.1494383384</v>
+        <v>381921.6226475704</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25258.89207261195</v>
+        <v>144818.1494383384</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>381921.6226475704</v>
+        <v>25258.89207261195</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>143216.2219514835</v>
+        <v>405238.6278289426</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25164.27848452498</v>
+        <v>143216.2219514835</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>405238.6278289426</v>
+        <v>25164.27848452498</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>139100.6798719119</v>
+        <v>420661.2188534532</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24722.81752983108</v>
+        <v>139100.6798719119</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>420661.2188534532</v>
+        <v>24722.81752983108</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>133707.3589962495</v>
+        <v>427343.9720699284</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24252.38243112998</v>
+        <v>133707.3589962495</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>427343.9720699284</v>
+        <v>24252.38243112998</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>129769.6387492765</v>
+        <v>425133.2305770265</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24378.47086887638</v>
+        <v>129769.6387492765</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>425133.2305770265</v>
+        <v>24378.47086887638</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>123361.9791925743</v>
+        <v>414599.2384559726</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24380.24119278282</v>
+        <v>123361.9791925743</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>414599.2384559726</v>
+        <v>24380.24119278282</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>107389.739202596</v>
+        <v>452373.1795588732</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22680.09828819626</v>
+        <v>107389.739202596</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>452373.1795588732</v>
+        <v>22680.09828819626</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>76254.15344303357</v>
+        <v>445101.5390142137</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17860.39597932465</v>
+        <v>76254.15344303357</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>445101.5390142137</v>
+        <v>17860.39597932465</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>58915.40656622266</v>
+        <v>418947.6929995697</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14988.8339191447</v>
+        <v>58915.40656622266</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>418947.6929995697</v>
+        <v>14988.8339191447</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46068.58369935933</v>
+        <v>391855.4476747504</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12362.3808989228</v>
+        <v>46068.58369935933</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>391855.4476747504</v>
+        <v>12362.3808989228</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9696.589980632758</v>
+        <v>3986.297117111728</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.547473508864641E-13</v>
+        <v>9696.589980632758</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3986.297117111728</v>
+        <v>4.547473508864641E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>45182.36617776565</v>
+        <v>366059.940339515</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11713.88227675308</v>
+        <v>45182.36617776565</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>366059.940339515</v>
+        <v>11713.88227675308</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>45026.61117593385</v>
+        <v>343585.381803778</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10947.20476276259</v>
+        <v>45026.61117593385</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>343585.381803778</v>
+        <v>10947.20476276259</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>43278.40569460555</v>
+        <v>318035.481980809</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9497.015400545963</v>
+        <v>43278.40569460555</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>318035.481980809</v>
+        <v>9497.015400545963</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46369.59589593275</v>
+        <v>306653.9218259966</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8778.256979641796</v>
+        <v>46369.59589593275</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>306653.9218259966</v>
+        <v>8778.256979641796</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>56164.36234210827</v>
+        <v>301935.1383688878</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9562.586578597955</v>
+        <v>56164.36234210827</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>301935.1383688878</v>
+        <v>9562.586578597955</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>71174.19577349676</v>
+        <v>303795.3595477929</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11852.72801458149</v>
+        <v>71174.19577349676</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>303795.3595477929</v>
+        <v>11852.72801458149</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>89622.74926294852</v>
+        <v>311580.7440927587</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15121.02337803511</v>
+        <v>89622.74926294852</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>311580.7440927587</v>
+        <v>15121.02337803511</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>109272.1725870853</v>
+        <v>316260.7857386684</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18669.19621342258</v>
+        <v>109272.1725870853</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>316260.7857386684</v>
+        <v>18669.19621342258</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>131903.9271523869</v>
+        <v>332366.5316504007</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22793.46198474546</v>
+        <v>131903.9271523869</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>332366.5316504007</v>
+        <v>22793.46198474546</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>149068.1880763515</v>
+        <v>350527.8049822757</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25983.6074810921</v>
+        <v>149068.1880763515</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>350527.8049822757</v>
+        <v>25983.6074810921</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11614.23185739234</v>
+        <v>3868.545397578686</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>445.4147693160246</v>
+        <v>11614.23185739234</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3868.545397578686</v>
+        <v>445.4147693160246</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>156269.9460240649</v>
+        <v>369376.0241382997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27425.57591910369</v>
+        <v>156269.9460240649</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>369376.0241382997</v>
+        <v>27425.57591910369</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>156343.9255842268</v>
+        <v>387696.3174826782</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27651.47821080231</v>
+        <v>156343.9255842268</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>387696.3174826782</v>
+        <v>27651.47821080231</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>151798.5744583495</v>
+        <v>398505.6105955066</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27153.27949058829</v>
+        <v>151798.5744583495</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>398505.6105955066</v>
+        <v>27153.27949058829</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>147076.6185887659</v>
+        <v>412959.5384959569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26802.7861168313</v>
+        <v>147076.6185887659</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>412959.5384959569</v>
+        <v>26802.7861168313</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140892.5544645472</v>
+        <v>424535.6192610683</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26407.15794495074</v>
+        <v>140892.5544645472</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>424535.6192610683</v>
+        <v>26407.15794495074</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132250.5866403743</v>
+        <v>432918.5217648316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25766.12217648071</v>
+        <v>132250.5866403743</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>432918.5217648316</v>
+        <v>25766.12217648071</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118765.1428134043</v>
+        <v>438020.4741276773</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24302.40681046725</v>
+        <v>118765.1428134043</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>438020.4741276773</v>
+        <v>24302.40681046725</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>98817.91614244413</v>
+        <v>435797.7495719846</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21478.45084387728</v>
+        <v>98817.91614244413</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>435797.7495719846</v>
+        <v>21478.45084387728</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>79255.4293271366</v>
+        <v>434880.3305504983</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18338.43594886601</v>
+        <v>79255.4293271366</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>434880.3305504983</v>
+        <v>18338.43594886601</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>65671.65577796381</v>
+        <v>431553.3555781329</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15830.58043265302</v>
+        <v>65671.65577796381</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>431553.3555781329</v>
+        <v>15830.58043265302</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13346.23959038145</v>
+        <v>7211.723657495722</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>449.5389801441947</v>
+        <v>13346.23959038145</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7211.723657495722</v>
+        <v>449.5389801441947</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>58913.90894671669</v>
+        <v>426381.1584209185</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14182.86466396123</v>
+        <v>58913.90894671669</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>426381.1584209185</v>
+        <v>14182.86466396123</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>57202.16694032541</v>
+        <v>420009.6434799703</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13181.31869452243</v>
+        <v>57202.16694032541</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>420009.6434799703</v>
+        <v>13181.31869452243</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>56944.85477147507</v>
+        <v>409068.0641080616</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12220.53341741889</v>
+        <v>56944.85477147507</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>409068.0641080616</v>
+        <v>12220.53341741889</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>60205.72423674562</v>
+        <v>402385.6777226292</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11780.31417815195</v>
+        <v>60205.72423674562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>402385.6777226292</v>
+        <v>11780.31417815195</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>67934.23833606928</v>
+        <v>396564.9133234164</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12247.35715746298</v>
+        <v>67934.23833606928</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>396564.9133234164</v>
+        <v>12247.35715746298</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>80639.08438153123</v>
+        <v>392186.9346025297</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13920.19270630711</v>
+        <v>80639.08438153123</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>392186.9346025297</v>
+        <v>13920.19270630711</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>97117.0518526088</v>
+        <v>389698.1463011019</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16617.67878144636</v>
+        <v>97117.0518526088</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>389698.1463011019</v>
+        <v>16617.67878144636</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>114542.1804396708</v>
+        <v>385102.2506491141</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19699.14316671778</v>
+        <v>114542.1804396708</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>385102.2506491141</v>
+        <v>19699.14316671778</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>133182.7469359604</v>
+        <v>387001.0283102132</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23096.79690914671</v>
+        <v>133182.7469359604</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>387001.0283102132</v>
+        <v>23096.79690914671</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>149296.1613556889</v>
+        <v>390996.0604038686</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26091.74238981795</v>
+        <v>149296.1613556889</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>390996.0604038686</v>
+        <v>26091.74238981795</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11317.58763897448</v>
+        <v>22037.54310490617</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>602.1347807750003</v>
+        <v>11317.58763897448</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22037.54310490617</v>
+        <v>602.1347807750003</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>159578.0941036562</v>
+        <v>396777.9627713999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28094.27601522108</v>
+        <v>159578.0941036562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>396777.9627713999</v>
+        <v>28094.27601522108</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>162982.7985254526</v>
+        <v>403903.9058354245</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28932.97545166989</v>
+        <v>162982.7985254526</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>403903.9058354245</v>
+        <v>28932.97545166989</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>159964.6111650821</v>
+        <v>407041.0535236793</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28713.49761563307</v>
+        <v>159964.6111650821</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>407041.0535236793</v>
+        <v>28713.49761563307</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>155172.3383068168</v>
+        <v>415267.4014553828</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28322.94476249616</v>
+        <v>155172.3383068168</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>415267.4014553828</v>
+        <v>28322.94476249616</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>148514.4881374869</v>
+        <v>423254.5680594314</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27760.6810236607</v>
+        <v>148514.4881374869</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>423254.5680594314</v>
+        <v>27760.6810236607</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>139520.9730586181</v>
+        <v>430552.3390229605</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26916.16132889153</v>
+        <v>139520.9730586181</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>430552.3390229605</v>
+        <v>26916.16132889153</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>127290.199307852</v>
+        <v>436805.4616338257</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25531.38312137098</v>
+        <v>127290.199307852</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>436805.4616338257</v>
+        <v>25531.38312137098</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>110113.9110767017</v>
+        <v>435194.4611160979</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23134.67137150594</v>
+        <v>110113.9110767017</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>435194.4611160979</v>
+        <v>23134.67137150594</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>93426.98338691518</v>
+        <v>438744.3100090381</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20563.74548516661</v>
+        <v>93426.98338691518</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>438744.3100090381</v>
+        <v>20563.74548516661</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>79267.27660151944</v>
+        <v>440867.1995893903</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18085.79670782201</v>
+        <v>79267.27660151944</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>440867.1995893903</v>
+        <v>18085.79670782201</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Min.xlsx
+++ b/Final Demand/AIC/AIC_Min.xlsx
@@ -149,10 +149,10 @@
     <t>Photovoltaic plants</t>
   </si>
   <si>
-    <t>Onshore wind plants</t>
+    <t>Offshore wind plants</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
+    <t>Onshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17980.06171661432</v>
+        <v>1377.486416816264</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1377.486416816264</v>
+        <v>17980.06171661432</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>70131.86938248668</v>
+        <v>16152.14519292919</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16152.14519292919</v>
+        <v>70131.86938248668</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>66068.89659177093</v>
+        <v>14839.01524847432</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14839.01524847432</v>
+        <v>66068.89659177093</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13245.5943131767</v>
+        <v>1729.28160751158</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1729.28160751158</v>
+        <v>13245.5943131767</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14164.42922402589</v>
+        <v>535.9405389164494</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>535.9405389164494</v>
+        <v>14164.42922402589</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15179.28787411324</v>
+        <v>1316.955093416698</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1316.955093416698</v>
+        <v>15179.28787411324</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12469.372179456</v>
+        <v>4284.93223558002</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4284.93223558002</v>
+        <v>12469.372179456</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15232.80507862195</v>
+        <v>2265.43970103711</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2265.43970103711</v>
+        <v>15232.80507862195</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13319.79145781131</v>
+        <v>11327.39227382107</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11327.39227382107</v>
+        <v>13319.79145781131</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13720.94967870839</v>
+        <v>5279.739168537682</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5279.739168537682</v>
+        <v>13720.94967870839</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13908.04432914784</v>
+        <v>6120.294040775963</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6120.294040775963</v>
+        <v>13908.04432914784</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9347.226755352662</v>
+        <v>7039.112678919686</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7039.112678919686</v>
+        <v>9347.226755352662</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7846.528544909441</v>
+        <v>37.117897443</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>37.117897443</v>
+        <v>7846.528544909441</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11794.3395560784</v>
+        <v>5003.088246098487</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5003.088246098487</v>
+        <v>11794.3395560784</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10822.52404755281</v>
+        <v>6854.249484387205</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6854.249484387205</v>
+        <v>10822.52404755281</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16605.04131637796</v>
+        <v>1607.29075474781</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1607.29075474781</v>
+        <v>16605.04131637796</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23431.10574141127</v>
+        <v>2686.151251713629</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2686.151251713629</v>
+        <v>23431.10574141127</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49940.93778352297</v>
+        <v>8110.543152243634</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8110.543152243634</v>
+        <v>49940.93778352297</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50350.62573273494</v>
+        <v>8035.962846193601</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8035.962846193601</v>
+        <v>50350.62573273494</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>51202.17748231569</v>
+        <v>7852.963657969689</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7852.963657969689</v>
+        <v>51202.17748231569</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142796.1974042125</v>
+        <v>24676.65601035481</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24676.65601035481</v>
+        <v>142796.1974042125</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>143910.7590928436</v>
+        <v>24882.79780110045</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24882.79780110045</v>
+        <v>143910.7590928436</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>144867.2410706528</v>
+        <v>25108.08523202629</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25108.08523202629</v>
+        <v>144867.2410706528</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9671.167627441413</v>
+        <v>676.3705756279999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>676.3705756279999</v>
+        <v>9671.167627441413</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>145737.3133448312</v>
+        <v>25410.4553978731</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25410.4553978731</v>
+        <v>145737.3133448312</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>146474.7180730011</v>
+        <v>25718.65018083408</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25718.65018083408</v>
+        <v>146474.7180730011</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132278.3701751609</v>
+        <v>23335.38792891792</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23335.38792891792</v>
+        <v>132278.3701751609</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132067.7705806859</v>
+        <v>23697.01184702868</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23697.01184702868</v>
+        <v>132067.7705806859</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>131993.9433658856</v>
+        <v>24821.56369666682</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24821.56369666682</v>
+        <v>131993.9433658856</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>131751.867925436</v>
+        <v>26340.88193733688</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26340.88193733688</v>
+        <v>131751.867925436</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>131781.3329826517</v>
+        <v>27868.06651153823</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27868.06651153823</v>
+        <v>131781.3329826517</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28187.47023974243</v>
+        <v>9890.126205121691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9890.126205121691</v>
+        <v>28187.47023974243</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27652.03486913675</v>
+        <v>9222.911395073694</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9222.911395073694</v>
+        <v>27652.03486913675</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26914.7352229848</v>
+        <v>8808.040320472675</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8808.040320472675</v>
+        <v>26914.7352229848</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7676.332671315526</v>
+        <v>863.6097471737995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>863.6097471737995</v>
+        <v>7676.332671315526</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26659.52672725217</v>
+        <v>8603.738375757821</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8603.738375757821</v>
+        <v>26659.52672725217</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28519.9784954926</v>
+        <v>7970.29939044721</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7970.29939044721</v>
+        <v>28519.9784954926</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19010.68470776523</v>
+        <v>4705.656677972351</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4705.656677972351</v>
+        <v>19010.68470776523</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27553.9219898826</v>
+        <v>4412.896708631481</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4412.896708631481</v>
+        <v>27553.9219898826</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40439.98284527031</v>
+        <v>6098.279484983417</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6098.279484983417</v>
+        <v>40439.98284527031</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>55918.34493954526</v>
+        <v>8979.037941489252</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8979.037941489252</v>
+        <v>55918.34493954526</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>73613.03365775803</v>
+        <v>12145.6347256779</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12145.6347256779</v>
+        <v>73613.03365775803</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>101697.7824250746</v>
+        <v>17183.33474112826</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17183.33474112826</v>
+        <v>101697.7824250746</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132887.0479086454</v>
+        <v>22893.5745606916</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22893.5745606916</v>
+        <v>132887.0479086454</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>144409.0577372424</v>
+        <v>25065.67187567457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25065.67187567457</v>
+        <v>144409.0577372424</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10163.62184563424</v>
+        <v>103.9301128404004</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103.9301128404004</v>
+        <v>10163.62184563424</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>144818.1494383384</v>
+        <v>25258.89207261195</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25258.89207261195</v>
+        <v>144818.1494383384</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>143216.2219514835</v>
+        <v>25164.27848452498</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25164.27848452498</v>
+        <v>143216.2219514835</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>139100.6798719119</v>
+        <v>24722.81752983108</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24722.81752983108</v>
+        <v>139100.6798719119</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>133707.3589962495</v>
+        <v>24252.38243112998</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24252.38243112998</v>
+        <v>133707.3589962495</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>129769.6387492765</v>
+        <v>24378.47086887638</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24378.47086887638</v>
+        <v>129769.6387492765</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>123361.9791925743</v>
+        <v>24380.24119278282</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24380.24119278282</v>
+        <v>123361.9791925743</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>107389.739202596</v>
+        <v>22680.09828819626</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22680.09828819626</v>
+        <v>107389.739202596</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>76254.15344303357</v>
+        <v>17860.39597932465</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17860.39597932465</v>
+        <v>76254.15344303357</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>58915.40656622266</v>
+        <v>14988.8339191447</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14988.8339191447</v>
+        <v>58915.40656622266</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46068.58369935933</v>
+        <v>12362.3808989228</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12362.3808989228</v>
+        <v>46068.58369935933</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9696.589980632758</v>
+        <v>4.547473508864641E-13</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.547473508864641E-13</v>
+        <v>9696.589980632758</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45182.36617776565</v>
+        <v>11713.88227675308</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11713.88227675308</v>
+        <v>45182.36617776565</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>45026.61117593385</v>
+        <v>10947.20476276259</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10947.20476276259</v>
+        <v>45026.61117593385</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43278.40569460555</v>
+        <v>9497.015400545963</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9497.015400545963</v>
+        <v>43278.40569460555</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46369.59589593275</v>
+        <v>8778.256979641796</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8778.256979641796</v>
+        <v>46369.59589593275</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>56164.36234210827</v>
+        <v>9562.586578597955</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9562.586578597955</v>
+        <v>56164.36234210827</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>71174.19577349676</v>
+        <v>11852.72801458149</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11852.72801458149</v>
+        <v>71174.19577349676</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>89622.74926294852</v>
+        <v>15121.02337803511</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15121.02337803511</v>
+        <v>89622.74926294852</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>109272.1725870853</v>
+        <v>18669.19621342258</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18669.19621342258</v>
+        <v>109272.1725870853</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>131903.9271523869</v>
+        <v>22793.46198474546</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22793.46198474546</v>
+        <v>131903.9271523869</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>149068.1880763515</v>
+        <v>25983.6074810921</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25983.6074810921</v>
+        <v>149068.1880763515</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11614.23185739234</v>
+        <v>445.4147693160246</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>445.4147693160246</v>
+        <v>11614.23185739234</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>156269.9460240649</v>
+        <v>27425.57591910369</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27425.57591910369</v>
+        <v>156269.9460240649</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>156343.9255842268</v>
+        <v>27651.47821080231</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27651.47821080231</v>
+        <v>156343.9255842268</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>151798.5744583495</v>
+        <v>27153.27949058829</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27153.27949058829</v>
+        <v>151798.5744583495</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>147076.6185887659</v>
+        <v>26802.7861168313</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26802.7861168313</v>
+        <v>147076.6185887659</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140892.5544645472</v>
+        <v>26407.15794495074</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26407.15794495074</v>
+        <v>140892.5544645472</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132250.5866403743</v>
+        <v>25766.12217648071</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25766.12217648071</v>
+        <v>132250.5866403743</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118765.1428134043</v>
+        <v>24302.40681046725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24302.40681046725</v>
+        <v>118765.1428134043</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>98817.91614244413</v>
+        <v>21478.45084387728</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21478.45084387728</v>
+        <v>98817.91614244413</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>79255.4293271366</v>
+        <v>18338.43594886601</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18338.43594886601</v>
+        <v>79255.4293271366</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>65671.65577796381</v>
+        <v>15830.58043265302</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15830.58043265302</v>
+        <v>65671.65577796381</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13346.23959038145</v>
+        <v>449.5389801441947</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>449.5389801441947</v>
+        <v>13346.23959038145</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>58913.90894671669</v>
+        <v>14182.86466396123</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14182.86466396123</v>
+        <v>58913.90894671669</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>57202.16694032541</v>
+        <v>13181.31869452243</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13181.31869452243</v>
+        <v>57202.16694032541</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>56944.85477147507</v>
+        <v>12220.53341741889</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12220.53341741889</v>
+        <v>56944.85477147507</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>60205.72423674562</v>
+        <v>11780.31417815195</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11780.31417815195</v>
+        <v>60205.72423674562</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>67934.23833606928</v>
+        <v>12247.35715746298</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12247.35715746298</v>
+        <v>67934.23833606928</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>80639.08438153123</v>
+        <v>13920.19270630711</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13920.19270630711</v>
+        <v>80639.08438153123</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>97117.0518526088</v>
+        <v>16617.67878144636</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16617.67878144636</v>
+        <v>97117.0518526088</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>114542.1804396708</v>
+        <v>19699.14316671778</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19699.14316671778</v>
+        <v>114542.1804396708</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>133182.7469359604</v>
+        <v>23096.79690914671</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23096.79690914671</v>
+        <v>133182.7469359604</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>149296.1613556889</v>
+        <v>26091.74238981795</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26091.74238981795</v>
+        <v>149296.1613556889</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11317.58763897448</v>
+        <v>602.1347807750003</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>602.1347807750003</v>
+        <v>11317.58763897448</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>159578.0941036562</v>
+        <v>28094.27601522108</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28094.27601522108</v>
+        <v>159578.0941036562</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>162982.7985254526</v>
+        <v>28932.97545166989</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28932.97545166989</v>
+        <v>162982.7985254526</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>159964.6111650821</v>
+        <v>28713.49761563307</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28713.49761563307</v>
+        <v>159964.6111650821</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>155172.3383068168</v>
+        <v>28322.94476249616</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28322.94476249616</v>
+        <v>155172.3383068168</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>148514.4881374869</v>
+        <v>27760.6810236607</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27760.6810236607</v>
+        <v>148514.4881374869</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>139520.9730586181</v>
+        <v>26916.16132889153</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26916.16132889153</v>
+        <v>139520.9730586181</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>127290.199307852</v>
+        <v>25531.38312137098</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25531.38312137098</v>
+        <v>127290.199307852</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>110113.9110767017</v>
+        <v>23134.67137150594</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23134.67137150594</v>
+        <v>110113.9110767017</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>93426.98338691518</v>
+        <v>20563.74548516661</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20563.74548516661</v>
+        <v>93426.98338691518</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>79267.27660151944</v>
+        <v>18085.79670782201</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18085.79670782201</v>
+        <v>79267.27660151944</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Min.xlsx
+++ b/Final Demand/AIC/AIC_Min.xlsx
@@ -146,10 +146,10 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Photovoltaic plants</t>
+    <t>Offshore wind plants</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
+    <t>Photovoltaic plants</t>
   </si>
   <si>
     <t>Onshore wind plants</t>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25942.01318245817</v>
+        <v>1167.49858120355</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1377.486416816264</v>
+        <v>21988.59425798884</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17980.06171661432</v>
+        <v>15239.13145062806</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>441654.3496927824</v>
+        <v>17362.44440585718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16152.14519292919</v>
+        <v>479556.2816428281</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>70131.86938248668</v>
+        <v>76147.49140199646</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>441283.6108581517</v>
+        <v>15960.13557931007</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14839.01524847432</v>
+        <v>479151.1916683745</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>66068.89659177093</v>
+        <v>71856.35008560913</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>54033.09681958084</v>
+        <v>1542.060603439363</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1729.28160751158</v>
+        <v>48184.99751868361</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13245.5943131767</v>
+        <v>11811.55775528385</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>81414.68414861253</v>
+        <v>455.1540148128315</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>535.9405389164494</v>
+        <v>69146.20143194405</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14164.42922402589</v>
+        <v>12029.315262113</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>47772.08125848576</v>
+        <v>1211.759640639529</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1316.955093416698</v>
+        <v>43959.29205938465</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15179.28787411324</v>
+        <v>13966.81185247508</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23855.5593439771</v>
+        <v>3814.119644834584</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4284.93223558002</v>
+        <v>21240.41064832773</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12469.372179456</v>
+        <v>11099.36684362713</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14612.54935797252</v>
+        <v>2015.921132810248</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2265.43970103711</v>
+        <v>13010.78306343031</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15232.80507862195</v>
+        <v>13555.42963164751</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13828.20575891138</v>
+        <v>12069.3594622774</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11327.39227382107</v>
+        <v>14700.34021159788</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13319.79145781131</v>
+        <v>14193.33265464084</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9951.691986317048</v>
+        <v>5638.848952522494</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5279.739168537682</v>
+        <v>10564.70729555917</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13720.94967870839</v>
+        <v>14658.26683774087</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8356.883396370322</v>
+        <v>6404.87778999576</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6120.294040775963</v>
+        <v>8649.009834836208</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13908.04432914784</v>
+        <v>14570.8542420851</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11014.84799362268</v>
+        <v>7047.464477989619</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7039.112678919686</v>
+        <v>10915.66781349428</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9347.226755352662</v>
+        <v>9422.83193705554</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>407.7534801982089</v>
+        <v>48.99483028137564</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37.117897443</v>
+        <v>538.2258677132877</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7846.528544909441</v>
+        <v>10357.24975926156</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19957.28707646469</v>
+        <v>5286.348498651503</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5003.088246098487</v>
+        <v>20813.45204524929</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11794.3395560784</v>
+        <v>12613.79820092756</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18198.225495776</v>
+        <v>7104.548173947609</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6854.249484387205</v>
+        <v>18494.91688235274</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10822.52404755281</v>
+        <v>11661.7842169911</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23238.26268590843</v>
+        <v>1638.212910505463</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1607.29075474781</v>
+        <v>22854.67137851477</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16605.04131637796</v>
+        <v>17725.74517230876</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29607.76508179479</v>
+        <v>3031.738704473501</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2686.151251713629</v>
+        <v>32177.20998402717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23431.10574141127</v>
+        <v>26940.3971037243</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>175356.5029045283</v>
+        <v>8886.398945886744</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8110.543152243634</v>
+        <v>190467.8237602106</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49940.93778352297</v>
+        <v>54841.08954191161</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>177085.5945479852</v>
+        <v>8771.980646030344</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8035.962846193601</v>
+        <v>191984.729596876</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50350.62573273494</v>
+        <v>54269.67933007923</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>179082.5117118655</v>
+        <v>8553.179472121235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7852.963657969689</v>
+        <v>193739.5681265837</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>51202.17748231569</v>
+        <v>54486.23806287075</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>553049.739526384</v>
+        <v>26920.68992260964</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24676.65601035481</v>
+        <v>602120.274666114</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142796.1974042125</v>
+        <v>154169.1112526439</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>555478.4303265321</v>
+        <v>27094.67911648675</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24882.79780110045</v>
+        <v>604273.9674366151</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>143910.7590928436</v>
+        <v>154804.4438620455</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>558034.8853500122</v>
+        <v>27276.9424017425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25108.08523202629</v>
+        <v>606563.1167497998</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>144867.2410706528</v>
+        <v>155225.7140021075</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>344.203261578039</v>
+        <v>845.5868443316413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>676.3705756279999</v>
+        <v>430.3169969480641</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9671.167627441413</v>
+        <v>12090.72719861821</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>560650.7357146251</v>
+        <v>27536.4500571301</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25410.4553978731</v>
+        <v>608943.472297729</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>145737.3133448312</v>
+        <v>155847.7971288816</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>563271.3554663807</v>
+        <v>27824.14544510079</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25718.65018083408</v>
+        <v>611390.2827094886</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>146474.7180730011</v>
+        <v>156697.6099861468</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>541404.2339852522</v>
+        <v>25216.42877171372</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23335.38792891792</v>
+        <v>587162.0839416981</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132278.3701751609</v>
+        <v>141526.3684367656</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>544044.9275383931</v>
+        <v>25583.50767408172</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23697.01184702868</v>
+        <v>589857.1606796281</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132067.7705806859</v>
+        <v>141520.4722651809</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>546859.0562194772</v>
+        <v>26687.99828319671</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24821.56369666682</v>
+        <v>592893.5336530451</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>131993.9433658856</v>
+        <v>141735.1237080074</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>550107.2141491193</v>
+        <v>28274.74303368077</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26340.88193733688</v>
+        <v>596563.8731167661</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>131751.867925436</v>
+        <v>141841.6040059018</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>554187.364280195</v>
+        <v>30061.53366027406</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27868.06651153823</v>
+        <v>601292.6882218542</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>131781.3329826517</v>
+        <v>142503.3920115358</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>125414.5775416903</v>
+        <v>10519.15764041268</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9890.126205121691</v>
+        <v>132907.7129160855</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28187.47023974243</v>
+        <v>30055.78064591601</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132879.1910405736</v>
+        <v>9794.438448868168</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9222.911395073694</v>
+        <v>141530.1073974324</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27652.03486913675</v>
+        <v>29725.39157505333</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>143073.8483812977</v>
+        <v>9269.359106937831</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8808.040320472675</v>
+        <v>153157.0203551995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26914.7352229848</v>
+        <v>28878.56549554528</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>971.0998343863937</v>
+        <v>902.5247365629416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>863.6097471737995</v>
+        <v>1014.859280325078</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7676.332671315526</v>
+        <v>8022.234747374016</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>156695.7381860884</v>
+        <v>9035.105146401911</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8603.738375757821</v>
+        <v>168496.5529230759</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26659.52672725217</v>
+        <v>28692.93879198749</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>174332.4957177695</v>
+        <v>8444.708575936907</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7970.29939044721</v>
+        <v>188146.2613527775</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28519.9784954926</v>
+        <v>30947.08713421435</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>114230.3299677838</v>
+        <v>4968.781437948055</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4705.656677972351</v>
+        <v>122696.6643042909</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19010.68470776523</v>
+        <v>20748.144700984</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140756.0215122448</v>
+        <v>4766.456720287213</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4412.896708631481</v>
+        <v>151837.4729948211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>27553.9219898826</v>
+        <v>30296.54462806834</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>171510.233811317</v>
+        <v>6682.182252857485</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6098.279484983417</v>
+        <v>185488.3332126988</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40439.98284527031</v>
+        <v>44403.61542243138</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>205832.6799583575</v>
+        <v>9817.483228358906</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8979.037941489252</v>
+        <v>222944.6404935941</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>55918.34493954526</v>
+        <v>60714.94801754924</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>242653.9011528129</v>
+        <v>13246.02107452293</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12145.6347256779</v>
+        <v>263059.716838209</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>73613.03365775803</v>
+        <v>79265.59489118704</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>280520.6583112758</v>
+        <v>18721.95922945859</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17183.33474112826</v>
+        <v>304267.5085979113</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>101697.7824250746</v>
+        <v>109335.4132582941</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>317665.7562093548</v>
+        <v>24923.37395926792</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22893.5745606916</v>
+        <v>344656.0811693342</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132887.0479086454</v>
+        <v>142905.279230827</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>352128.1263325829</v>
+        <v>27244.32379290619</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25065.67187567457</v>
+        <v>382098.2712530298</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>144409.0577372424</v>
+        <v>155023.8196656725</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2894.043223348993</v>
+        <v>98.7726955543053</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>103.9301128404004</v>
+        <v>2750.437565723717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10163.62184563424</v>
+        <v>9659.263315046461</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>381921.6226475704</v>
+        <v>27397.53103068448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25258.89207261195</v>
+        <v>414436.9618821051</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>144818.1494383384</v>
+        <v>155126.7509218224</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>405238.6278289426</v>
+        <v>27242.90003398695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25164.27848452498</v>
+        <v>439708.7152513405</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>143216.2219514835</v>
+        <v>153277.403805648</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>420661.2188534532</v>
+        <v>26721.92946280108</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24722.81752983108</v>
+        <v>456375.1975299306</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>139100.6798719119</v>
+        <v>148919.581962151</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>427343.9720699284</v>
+        <v>26171.69607352879</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24252.38243112998</v>
+        <v>463522.8550061062</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>133707.3589962495</v>
+        <v>143296.4316888924</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>425133.2305770265</v>
+        <v>26260.07250848727</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24378.47086887638</v>
+        <v>460992.5427879775</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>129769.6387492765</v>
+        <v>139309.3648421217</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>414599.2384559726</v>
+        <v>26218.94513476337</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24380.24119278282</v>
+        <v>449413.6843536524</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>123361.9791925743</v>
+        <v>132692.3482310243</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>452373.1795588732</v>
+        <v>24371.50631728384</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22680.09828819626</v>
+        <v>490702.811999185</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>107389.739202596</v>
+        <v>115718.4357284198</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>445101.5390142137</v>
+        <v>19162.63005288481</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17860.39597932465</v>
+        <v>482795.8417221922</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>76254.15344303357</v>
+        <v>82217.34671901981</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>418947.6929995697</v>
+        <v>16067.27255908528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14988.8339191447</v>
+        <v>454291.1343202749</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>58915.40656622266</v>
+        <v>63690.96928874752</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>391855.4476747504</v>
+        <v>13197.28161199752</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12362.3808989228</v>
+        <v>424797.2091588676</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46068.58369935933</v>
+        <v>49851.39388649445</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3986.297117111728</v>
+        <v>4.547473508864641E-13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.547473508864641E-13</v>
+        <v>3787.90381180562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9696.589980632758</v>
+        <v>9213.925933867162</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>366059.940339515</v>
+        <v>12486.25111293537</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11713.88227675308</v>
+        <v>396745.8569534514</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45182.36617776565</v>
+        <v>48979.65984470514</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>343585.381803778</v>
+        <v>11689.04797007481</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10947.20476276259</v>
+        <v>372336.7386725927</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>45026.61117593385</v>
+        <v>48940.27427282161</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>318035.481980809</v>
+        <v>10185.77132029849</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9497.015400545963</v>
+        <v>344563.1761124637</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43278.40569460555</v>
+        <v>47186.77582421759</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>306653.9218259966</v>
+        <v>9487.897290208377</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8778.256979641796</v>
+        <v>332264.7281722147</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>46369.59589593275</v>
+        <v>50666.42201072723</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>301935.1383688878</v>
+        <v>10413.10505949694</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9562.586578597955</v>
+        <v>327224.9293817701</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>56164.36234210827</v>
+        <v>61316.65369365481</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>303795.3595477929</v>
+        <v>12943.32765577728</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11852.72801458149</v>
+        <v>329344.3761237292</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>71174.19577349676</v>
+        <v>77402.25845947978</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>311580.7440927587</v>
+        <v>16502.18860264181</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15121.02337803511</v>
+        <v>337903.842891736</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>89622.74926294852</v>
+        <v>96992.37580852024</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>316260.7857386684</v>
+        <v>20348.18094760348</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18669.19621342258</v>
+        <v>343029.5606877664</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>109272.1725870853</v>
+        <v>117829.3424990554</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>332366.5316504007</v>
+        <v>24817.01461117127</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22793.46198474546</v>
+        <v>360610.6687226724</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>131903.9271523869</v>
+        <v>142009.4293251499</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>350527.8049822757</v>
+        <v>28257.77751665376</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25983.6074810921</v>
+        <v>380408.1606948674</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>149068.1880763515</v>
+        <v>160321.8578004942</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3868.545397578686</v>
+        <v>419.3670277158658</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>445.4147693160246</v>
+        <v>3642.405278383589</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11614.23185739234</v>
+        <v>10935.03455378785</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>369376.0241382997</v>
+        <v>29782.56319924397</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27425.57591910369</v>
+        <v>400933.1118365387</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>156269.9460240649</v>
+        <v>167868.0490606327</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>387696.3174826782</v>
+        <v>29978.93721088278</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27651.47821080231</v>
+        <v>420865.8215168854</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>156343.9255842268</v>
+        <v>167792.6718597815</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>398505.6105955066</v>
+        <v>29389.33027323149</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27153.27949058829</v>
+        <v>432580.610664051</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>151798.5744583495</v>
+        <v>162862.2725522246</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>412959.5384959569</v>
+        <v>28966.70807857963</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26802.7861168313</v>
+        <v>448282.2260883907</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>147076.6185887659</v>
+        <v>157901.5722070911</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>424535.6192610683</v>
+        <v>28498.12887163978</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26407.15794495074</v>
+        <v>460847.118528923</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>140892.5544645472</v>
+        <v>151446.3351401284</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>432918.5217648316</v>
+        <v>27769.65864797396</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25766.12217648071</v>
+        <v>469936.502695146</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132250.5866403743</v>
+        <v>142371.37317457</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>438020.4741276773</v>
+        <v>26164.29635023023</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24302.40681046725</v>
+        <v>475458.6772734709</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>118765.1428134043</v>
+        <v>128056.5712388265</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>435797.7495719846</v>
+        <v>23100.59649065492</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21478.45084387728</v>
+        <v>472995.1241683252</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>98817.91614244413</v>
+        <v>106702.3029527273</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>434880.3305504983</v>
+        <v>19703.84100133786</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18338.43594886601</v>
+        <v>471981.541537717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>79255.4293271366</v>
+        <v>85725.15237726457</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>431553.3555781329</v>
+        <v>16989.01221024559</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15830.58043265302</v>
+        <v>468355.4654622599</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>65671.65577796381</v>
+        <v>71172.63754799869</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7211.723657495722</v>
+        <v>387.7656110923913</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>449.5389801441947</v>
+        <v>6221.006928950941</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13346.23959038145</v>
+        <v>11512.266964967</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>426381.1584209185</v>
+        <v>15206.49034907803</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14182.86466396123</v>
+        <v>462731.3460311405</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>58913.90894671669</v>
+        <v>63966.68755524186</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>420009.6434799703</v>
+        <v>14142.82128388289</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13181.31869452243</v>
+        <v>455811.6118785609</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>57202.16694032541</v>
+        <v>62219.1727675898</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>409068.0641080616</v>
+        <v>13148.33166754741</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12220.53341741889</v>
+        <v>443906.4696542621</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>56944.85477147507</v>
+        <v>62041.60300364904</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>402385.6777226292</v>
+        <v>12737.07461825677</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11780.31417815195</v>
+        <v>436663.7648978066</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>60205.72423674562</v>
+        <v>65660.11469643237</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>396564.9133234164</v>
+        <v>13309.53885321436</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12247.35715746298</v>
+        <v>430363.8036930617</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>67934.23833606928</v>
+        <v>74043.2432620232</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>392186.9346025297</v>
+        <v>15174.50804519752</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13920.19270630711</v>
+        <v>425637.0947346315</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>80639.08438153123</v>
+        <v>87687.32351052901</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>389698.1463011019</v>
+        <v>18127.86111267871</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16617.67878144636</v>
+        <v>422967.4623101987</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>97117.0518526088</v>
+        <v>105270.2506666919</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>385102.2506491141</v>
+        <v>21475.14426546713</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19699.14316671778</v>
+        <v>417982.5040904563</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>114542.1804396708</v>
+        <v>123774.2712843758</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>387001.0283102132</v>
+        <v>25153.37680762954</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23096.79690914671</v>
+        <v>420084.276592914</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>133182.7469359604</v>
+        <v>143607.2489023022</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>390996.0604038686</v>
+        <v>28384.00625014369</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26091.74238981795</v>
+        <v>424463.0884167925</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>149296.1613556889</v>
+        <v>160763.3145335522</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22037.54310490617</v>
+        <v>483.9729263410095</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>602.1347807750003</v>
+        <v>17713.6694432871</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11317.58763897448</v>
+        <v>9096.644446862731</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>396777.9627713999</v>
+        <v>30525.69507141522</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28094.27601522108</v>
+        <v>430780.9548709076</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>159578.0941036562</v>
+        <v>171669.7619487871</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>403903.9058354245</v>
+        <v>31394.25165438803</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28932.97545166989</v>
+        <v>438555.1029726062</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>162982.7985254526</v>
+        <v>175206.4405052196</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>407041.0535236793</v>
+        <v>31108.7924319809</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28713.49761563307</v>
+        <v>441957.4891909137</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>159964.6111650821</v>
+        <v>171885.1173135671</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>415267.4014553828</v>
+        <v>30641.62699178729</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28322.94476249616</v>
+        <v>450915.9337555729</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>155172.3383068168</v>
+        <v>166780.3887924561</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>423254.5680594314</v>
+        <v>29993.55136540195</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27760.6810236607</v>
+        <v>459608.3133571446</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>148514.4881374869</v>
+        <v>159759.4294806202</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>430552.3390229605</v>
+        <v>29046.58524591464</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26916.16132889153</v>
+        <v>467545.8385404926</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>139520.9730586181</v>
+        <v>150268.4898941475</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>436805.4616338257</v>
+        <v>27523.8941508531</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25531.38312137098</v>
+        <v>474343.3543432914</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>127290.199307852</v>
+        <v>137288.8153302837</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>435194.4611160979</v>
+        <v>24913.36098993378</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23134.67137150594</v>
+        <v>472548.0231381636</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>110113.9110767017</v>
+        <v>118920.7693314138</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>438744.3100090381</v>
+        <v>22127.00067931891</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20563.74548516661</v>
+        <v>476402.1068537049</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>93426.98338691518</v>
+        <v>101064.5583035122</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>440867.1995893903</v>
+        <v>19447.34172437841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18085.79670782201</v>
+        <v>478704.7143030129</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>79267.27660151944</v>
+        <v>85904.30365049699</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Min.xlsx
+++ b/Final Demand/AIC/AIC_Min.xlsx
@@ -146,13 +146,13 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Offshore wind plants</t>
-  </si>
-  <si>
     <t>Photovoltaic plants</t>
   </si>
   <si>
     <t>Onshore wind plants</t>
+  </si>
+  <si>
+    <t>Offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1167.49858120355</v>
+        <v>21988.59425798884</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21988.59425798884</v>
+        <v>15239.13145062806</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15239.13145062806</v>
+        <v>1167.49858120355</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17362.44440585718</v>
+        <v>479556.2816428281</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>479556.2816428281</v>
+        <v>76147.49140199646</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>76147.49140199646</v>
+        <v>17362.44440585718</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15960.13557931007</v>
+        <v>479151.1916683745</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>479151.1916683745</v>
+        <v>71856.35008560913</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>71856.35008560913</v>
+        <v>15960.13557931007</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1542.060603439363</v>
+        <v>48184.99751868361</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48184.99751868361</v>
+        <v>11811.55775528385</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11811.55775528385</v>
+        <v>1542.060603439363</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>455.1540148128315</v>
+        <v>69146.20143194405</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>69146.20143194405</v>
+        <v>12029.315262113</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12029.315262113</v>
+        <v>455.1540148128315</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1211.759640639529</v>
+        <v>43959.29205938465</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>43959.29205938465</v>
+        <v>13966.81185247508</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13966.81185247508</v>
+        <v>1211.759640639529</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3814.119644834584</v>
+        <v>21240.41064832773</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21240.41064832773</v>
+        <v>11099.36684362713</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11099.36684362713</v>
+        <v>3814.119644834584</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2015.921132810248</v>
+        <v>13010.78306343031</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13010.78306343031</v>
+        <v>13555.42963164751</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13555.42963164751</v>
+        <v>2015.921132810248</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12069.3594622774</v>
+        <v>14700.34021159788</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14700.34021159788</v>
+        <v>14193.33265464084</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14193.33265464084</v>
+        <v>12069.3594622774</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5638.848952522494</v>
+        <v>10564.70729555917</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10564.70729555917</v>
+        <v>14658.26683774087</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14658.26683774087</v>
+        <v>5638.848952522494</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6404.87778999576</v>
+        <v>8649.009834836208</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8649.009834836208</v>
+        <v>14570.8542420851</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14570.8542420851</v>
+        <v>6404.87778999576</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7047.464477989619</v>
+        <v>10915.66781349428</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10915.66781349428</v>
+        <v>9422.83193705554</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9422.83193705554</v>
+        <v>7047.464477989619</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>48.99483028137564</v>
+        <v>538.2258677132877</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>538.2258677132877</v>
+        <v>10357.24975926156</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10357.24975926156</v>
+        <v>48.99483028137564</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5286.348498651503</v>
+        <v>20813.45204524929</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20813.45204524929</v>
+        <v>12613.79820092756</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12613.79820092756</v>
+        <v>5286.348498651503</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7104.548173947609</v>
+        <v>18494.91688235274</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18494.91688235274</v>
+        <v>11661.7842169911</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11661.7842169911</v>
+        <v>7104.548173947609</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1638.212910505463</v>
+        <v>22854.67137851477</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22854.67137851477</v>
+        <v>17725.74517230876</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17725.74517230876</v>
+        <v>1638.212910505463</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3031.738704473501</v>
+        <v>32177.20998402717</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32177.20998402717</v>
+        <v>26940.3971037243</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26940.3971037243</v>
+        <v>3031.738704473501</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8886.398945886744</v>
+        <v>190467.8237602106</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>190467.8237602106</v>
+        <v>54841.08954191161</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54841.08954191161</v>
+        <v>8886.398945886744</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8771.980646030344</v>
+        <v>191984.729596876</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>191984.729596876</v>
+        <v>54269.67933007923</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54269.67933007923</v>
+        <v>8771.980646030344</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8553.179472121235</v>
+        <v>193739.5681265837</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>193739.5681265837</v>
+        <v>54486.23806287075</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>54486.23806287075</v>
+        <v>8553.179472121235</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26920.68992260964</v>
+        <v>602120.274666114</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>602120.274666114</v>
+        <v>154169.1112526439</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>154169.1112526439</v>
+        <v>26920.68992260964</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27094.67911648675</v>
+        <v>604273.9674366151</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>604273.9674366151</v>
+        <v>154804.4438620455</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>154804.4438620455</v>
+        <v>27094.67911648675</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27276.9424017425</v>
+        <v>606563.1167497998</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>606563.1167497998</v>
+        <v>155225.7140021075</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>155225.7140021075</v>
+        <v>27276.9424017425</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>845.5868443316413</v>
+        <v>430.3169969480641</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>430.3169969480641</v>
+        <v>12090.72719861821</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12090.72719861821</v>
+        <v>845.5868443316413</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27536.4500571301</v>
+        <v>608943.472297729</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>608943.472297729</v>
+        <v>155847.7971288816</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>155847.7971288816</v>
+        <v>27536.4500571301</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27824.14544510079</v>
+        <v>611390.2827094886</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>611390.2827094886</v>
+        <v>156697.6099861468</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>156697.6099861468</v>
+        <v>27824.14544510079</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25216.42877171372</v>
+        <v>587162.0839416981</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>587162.0839416981</v>
+        <v>141526.3684367656</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141526.3684367656</v>
+        <v>25216.42877171372</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25583.50767408172</v>
+        <v>589857.1606796281</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>589857.1606796281</v>
+        <v>141520.4722651809</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141520.4722651809</v>
+        <v>25583.50767408172</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26687.99828319671</v>
+        <v>592893.5336530451</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>592893.5336530451</v>
+        <v>141735.1237080074</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141735.1237080074</v>
+        <v>26687.99828319671</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28274.74303368077</v>
+        <v>596563.8731167661</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>596563.8731167661</v>
+        <v>141841.6040059018</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>141841.6040059018</v>
+        <v>28274.74303368077</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30061.53366027406</v>
+        <v>601292.6882218542</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>601292.6882218542</v>
+        <v>142503.3920115358</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142503.3920115358</v>
+        <v>30061.53366027406</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10519.15764041268</v>
+        <v>132907.7129160855</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132907.7129160855</v>
+        <v>30055.78064591601</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30055.78064591601</v>
+        <v>10519.15764041268</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9794.438448868168</v>
+        <v>141530.1073974324</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141530.1073974324</v>
+        <v>29725.39157505333</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29725.39157505333</v>
+        <v>9794.438448868168</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9269.359106937831</v>
+        <v>153157.0203551995</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>153157.0203551995</v>
+        <v>28878.56549554528</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28878.56549554528</v>
+        <v>9269.359106937831</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>902.5247365629416</v>
+        <v>1014.859280325078</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1014.859280325078</v>
+        <v>8022.234747374016</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8022.234747374016</v>
+        <v>902.5247365629416</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9035.105146401911</v>
+        <v>168496.5529230759</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>168496.5529230759</v>
+        <v>28692.93879198749</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28692.93879198749</v>
+        <v>9035.105146401911</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8444.708575936907</v>
+        <v>188146.2613527775</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>188146.2613527775</v>
+        <v>30947.08713421435</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30947.08713421435</v>
+        <v>8444.708575936907</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4968.781437948055</v>
+        <v>122696.6643042909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>122696.6643042909</v>
+        <v>20748.144700984</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20748.144700984</v>
+        <v>4968.781437948055</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4766.456720287213</v>
+        <v>151837.4729948211</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>151837.4729948211</v>
+        <v>30296.54462806834</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30296.54462806834</v>
+        <v>4766.456720287213</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6682.182252857485</v>
+        <v>185488.3332126988</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>185488.3332126988</v>
+        <v>44403.61542243138</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>44403.61542243138</v>
+        <v>6682.182252857485</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9817.483228358906</v>
+        <v>222944.6404935941</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>222944.6404935941</v>
+        <v>60714.94801754924</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>60714.94801754924</v>
+        <v>9817.483228358906</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13246.02107452293</v>
+        <v>263059.716838209</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>263059.716838209</v>
+        <v>79265.59489118704</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>79265.59489118704</v>
+        <v>13246.02107452293</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18721.95922945859</v>
+        <v>304267.5085979113</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>304267.5085979113</v>
+        <v>109335.4132582941</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>109335.4132582941</v>
+        <v>18721.95922945859</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24923.37395926792</v>
+        <v>344656.0811693342</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>344656.0811693342</v>
+        <v>142905.279230827</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142905.279230827</v>
+        <v>24923.37395926792</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27244.32379290619</v>
+        <v>382098.2712530298</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>382098.2712530298</v>
+        <v>155023.8196656725</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>155023.8196656725</v>
+        <v>27244.32379290619</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>98.7726955543053</v>
+        <v>2750.437565723717</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2750.437565723717</v>
+        <v>9659.263315046461</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9659.263315046461</v>
+        <v>98.7726955543053</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27397.53103068448</v>
+        <v>414436.9618821051</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>414436.9618821051</v>
+        <v>155126.7509218224</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>155126.7509218224</v>
+        <v>27397.53103068448</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27242.90003398695</v>
+        <v>439708.7152513405</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>439708.7152513405</v>
+        <v>153277.403805648</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>153277.403805648</v>
+        <v>27242.90003398695</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26721.92946280108</v>
+        <v>456375.1975299306</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>456375.1975299306</v>
+        <v>148919.581962151</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>148919.581962151</v>
+        <v>26721.92946280108</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26171.69607352879</v>
+        <v>463522.8550061062</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>463522.8550061062</v>
+        <v>143296.4316888924</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>143296.4316888924</v>
+        <v>26171.69607352879</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26260.07250848727</v>
+        <v>460992.5427879775</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>460992.5427879775</v>
+        <v>139309.3648421217</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>139309.3648421217</v>
+        <v>26260.07250848727</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26218.94513476337</v>
+        <v>449413.6843536524</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>449413.6843536524</v>
+        <v>132692.3482310243</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132692.3482310243</v>
+        <v>26218.94513476337</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24371.50631728384</v>
+        <v>490702.811999185</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>490702.811999185</v>
+        <v>115718.4357284198</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>115718.4357284198</v>
+        <v>24371.50631728384</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19162.63005288481</v>
+        <v>482795.8417221922</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>482795.8417221922</v>
+        <v>82217.34671901981</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>82217.34671901981</v>
+        <v>19162.63005288481</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16067.27255908528</v>
+        <v>454291.1343202749</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>454291.1343202749</v>
+        <v>63690.96928874752</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>63690.96928874752</v>
+        <v>16067.27255908528</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13197.28161199752</v>
+        <v>424797.2091588676</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>424797.2091588676</v>
+        <v>49851.39388649445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49851.39388649445</v>
+        <v>13197.28161199752</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.547473508864641E-13</v>
+        <v>3787.90381180562</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3787.90381180562</v>
+        <v>9213.925933867162</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9213.925933867162</v>
+        <v>4.547473508864641E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12486.25111293537</v>
+        <v>396745.8569534514</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>396745.8569534514</v>
+        <v>48979.65984470514</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48979.65984470514</v>
+        <v>12486.25111293537</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11689.04797007481</v>
+        <v>372336.7386725927</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>372336.7386725927</v>
+        <v>48940.27427282161</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>48940.27427282161</v>
+        <v>11689.04797007481</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10185.77132029849</v>
+        <v>344563.1761124637</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>344563.1761124637</v>
+        <v>47186.77582421759</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>47186.77582421759</v>
+        <v>10185.77132029849</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9487.897290208377</v>
+        <v>332264.7281722147</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>332264.7281722147</v>
+        <v>50666.42201072723</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50666.42201072723</v>
+        <v>9487.897290208377</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10413.10505949694</v>
+        <v>327224.9293817701</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>327224.9293817701</v>
+        <v>61316.65369365481</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>61316.65369365481</v>
+        <v>10413.10505949694</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12943.32765577728</v>
+        <v>329344.3761237292</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>329344.3761237292</v>
+        <v>77402.25845947978</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>77402.25845947978</v>
+        <v>12943.32765577728</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16502.18860264181</v>
+        <v>337903.842891736</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>337903.842891736</v>
+        <v>96992.37580852024</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>96992.37580852024</v>
+        <v>16502.18860264181</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20348.18094760348</v>
+        <v>343029.5606877664</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>343029.5606877664</v>
+        <v>117829.3424990554</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>117829.3424990554</v>
+        <v>20348.18094760348</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24817.01461117127</v>
+        <v>360610.6687226724</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>360610.6687226724</v>
+        <v>142009.4293251499</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142009.4293251499</v>
+        <v>24817.01461117127</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28257.77751665376</v>
+        <v>380408.1606948674</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>380408.1606948674</v>
+        <v>160321.8578004942</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>160321.8578004942</v>
+        <v>28257.77751665376</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>419.3670277158658</v>
+        <v>3642.405278383589</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3642.405278383589</v>
+        <v>10935.03455378785</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10935.03455378785</v>
+        <v>419.3670277158658</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29782.56319924397</v>
+        <v>400933.1118365387</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>400933.1118365387</v>
+        <v>167868.0490606327</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>167868.0490606327</v>
+        <v>29782.56319924397</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29978.93721088278</v>
+        <v>420865.8215168854</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>420865.8215168854</v>
+        <v>167792.6718597815</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>167792.6718597815</v>
+        <v>29978.93721088278</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29389.33027323149</v>
+        <v>432580.610664051</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>432580.610664051</v>
+        <v>162862.2725522246</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>162862.2725522246</v>
+        <v>29389.33027323149</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28966.70807857963</v>
+        <v>448282.2260883907</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>448282.2260883907</v>
+        <v>157901.5722070911</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>157901.5722070911</v>
+        <v>28966.70807857963</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28498.12887163978</v>
+        <v>460847.118528923</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>460847.118528923</v>
+        <v>151446.3351401284</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>151446.3351401284</v>
+        <v>28498.12887163978</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27769.65864797396</v>
+        <v>469936.502695146</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>469936.502695146</v>
+        <v>142371.37317457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142371.37317457</v>
+        <v>27769.65864797396</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26164.29635023023</v>
+        <v>475458.6772734709</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>475458.6772734709</v>
+        <v>128056.5712388265</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>128056.5712388265</v>
+        <v>26164.29635023023</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23100.59649065492</v>
+        <v>472995.1241683252</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>472995.1241683252</v>
+        <v>106702.3029527273</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>106702.3029527273</v>
+        <v>23100.59649065492</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19703.84100133786</v>
+        <v>471981.541537717</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>471981.541537717</v>
+        <v>85725.15237726457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>85725.15237726457</v>
+        <v>19703.84100133786</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16989.01221024559</v>
+        <v>468355.4654622599</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>468355.4654622599</v>
+        <v>71172.63754799869</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>71172.63754799869</v>
+        <v>16989.01221024559</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>387.7656110923913</v>
+        <v>6221.006928950941</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6221.006928950941</v>
+        <v>11512.266964967</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11512.266964967</v>
+        <v>387.7656110923913</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15206.49034907803</v>
+        <v>462731.3460311405</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>462731.3460311405</v>
+        <v>63966.68755524186</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>63966.68755524186</v>
+        <v>15206.49034907803</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14142.82128388289</v>
+        <v>455811.6118785609</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>455811.6118785609</v>
+        <v>62219.1727675898</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>62219.1727675898</v>
+        <v>14142.82128388289</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13148.33166754741</v>
+        <v>443906.4696542621</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>443906.4696542621</v>
+        <v>62041.60300364904</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>62041.60300364904</v>
+        <v>13148.33166754741</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12737.07461825677</v>
+        <v>436663.7648978066</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>436663.7648978066</v>
+        <v>65660.11469643237</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>65660.11469643237</v>
+        <v>12737.07461825677</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13309.53885321436</v>
+        <v>430363.8036930617</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>430363.8036930617</v>
+        <v>74043.2432620232</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>74043.2432620232</v>
+        <v>13309.53885321436</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15174.50804519752</v>
+        <v>425637.0947346315</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>425637.0947346315</v>
+        <v>87687.32351052901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>87687.32351052901</v>
+        <v>15174.50804519752</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18127.86111267871</v>
+        <v>422967.4623101987</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>422967.4623101987</v>
+        <v>105270.2506666919</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>105270.2506666919</v>
+        <v>18127.86111267871</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21475.14426546713</v>
+        <v>417982.5040904563</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>417982.5040904563</v>
+        <v>123774.2712843758</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>123774.2712843758</v>
+        <v>21475.14426546713</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25153.37680762954</v>
+        <v>420084.276592914</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>420084.276592914</v>
+        <v>143607.2489023022</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>143607.2489023022</v>
+        <v>25153.37680762954</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28384.00625014369</v>
+        <v>424463.0884167925</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>424463.0884167925</v>
+        <v>160763.3145335522</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>160763.3145335522</v>
+        <v>28384.00625014369</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>483.9729263410095</v>
+        <v>17713.6694432871</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17713.6694432871</v>
+        <v>9096.644446862731</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9096.644446862731</v>
+        <v>483.9729263410095</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30525.69507141522</v>
+        <v>430780.9548709076</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>430780.9548709076</v>
+        <v>171669.7619487871</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>171669.7619487871</v>
+        <v>30525.69507141522</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31394.25165438803</v>
+        <v>438555.1029726062</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>438555.1029726062</v>
+        <v>175206.4405052196</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>175206.4405052196</v>
+        <v>31394.25165438803</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31108.7924319809</v>
+        <v>441957.4891909137</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>441957.4891909137</v>
+        <v>171885.1173135671</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>171885.1173135671</v>
+        <v>31108.7924319809</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30641.62699178729</v>
+        <v>450915.9337555729</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>450915.9337555729</v>
+        <v>166780.3887924561</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>166780.3887924561</v>
+        <v>30641.62699178729</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29993.55136540195</v>
+        <v>459608.3133571446</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>459608.3133571446</v>
+        <v>159759.4294806202</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>159759.4294806202</v>
+        <v>29993.55136540195</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29046.58524591464</v>
+        <v>467545.8385404926</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>467545.8385404926</v>
+        <v>150268.4898941475</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>150268.4898941475</v>
+        <v>29046.58524591464</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27523.8941508531</v>
+        <v>474343.3543432914</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>474343.3543432914</v>
+        <v>137288.8153302837</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>137288.8153302837</v>
+        <v>27523.8941508531</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24913.36098993378</v>
+        <v>472548.0231381636</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>472548.0231381636</v>
+        <v>118920.7693314138</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>118920.7693314138</v>
+        <v>24913.36098993378</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22127.00067931891</v>
+        <v>476402.1068537049</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>476402.1068537049</v>
+        <v>101064.5583035122</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>101064.5583035122</v>
+        <v>22127.00067931891</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19447.34172437841</v>
+        <v>478704.7143030129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>478704.7143030129</v>
+        <v>85904.30365049699</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>85904.30365049699</v>
+        <v>19447.34172437841</v>
       </c>
       <c r="F7">
         <v>0</v>

--- a/Final Demand/AIC/AIC_Min.xlsx
+++ b/Final Demand/AIC/AIC_Min.xlsx
@@ -146,10 +146,10 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Photovoltaic plants</t>
+    <t>Onshore wind plants</t>
   </si>
   <si>
-    <t>Onshore wind plants</t>
+    <t>Photovoltaic plants</t>
   </si>
   <si>
     <t>Offshore wind plants</t>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21988.59425798884</v>
+        <v>15239.13145062806</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15239.13145062806</v>
+        <v>21988.59425798884</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>479556.2816428281</v>
+        <v>76147.49140199646</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>76147.49140199646</v>
+        <v>479556.2816428281</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>479151.1916683745</v>
+        <v>71856.35008560913</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>71856.35008560913</v>
+        <v>479151.1916683745</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>48184.99751868361</v>
+        <v>11811.55775528385</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11811.55775528385</v>
+        <v>48184.99751868361</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>69146.20143194405</v>
+        <v>12029.315262113</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12029.315262113</v>
+        <v>69146.20143194405</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>43959.29205938465</v>
+        <v>13966.81185247508</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13966.81185247508</v>
+        <v>43959.29205938465</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21240.41064832773</v>
+        <v>11099.36684362713</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11099.36684362713</v>
+        <v>21240.41064832773</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13010.78306343031</v>
+        <v>13555.42963164751</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13555.42963164751</v>
+        <v>13010.78306343031</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14700.34021159788</v>
+        <v>14193.33265464084</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14193.33265464084</v>
+        <v>14700.34021159788</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10564.70729555917</v>
+        <v>14658.26683774087</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14658.26683774087</v>
+        <v>10564.70729555917</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8649.009834836208</v>
+        <v>14570.8542420851</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14570.8542420851</v>
+        <v>8649.009834836208</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10915.66781349428</v>
+        <v>9422.83193705554</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9422.83193705554</v>
+        <v>10915.66781349428</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>538.2258677132877</v>
+        <v>10357.24975926156</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10357.24975926156</v>
+        <v>538.2258677132877</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20813.45204524929</v>
+        <v>12613.79820092756</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12613.79820092756</v>
+        <v>20813.45204524929</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18494.91688235274</v>
+        <v>11661.7842169911</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11661.7842169911</v>
+        <v>18494.91688235274</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22854.67137851477</v>
+        <v>17725.74517230876</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17725.74517230876</v>
+        <v>22854.67137851477</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32177.20998402717</v>
+        <v>26940.3971037243</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26940.3971037243</v>
+        <v>32177.20998402717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>190467.8237602106</v>
+        <v>54841.08954191161</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54841.08954191161</v>
+        <v>190467.8237602106</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>191984.729596876</v>
+        <v>54269.67933007923</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54269.67933007923</v>
+        <v>191984.729596876</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>193739.5681265837</v>
+        <v>54486.23806287075</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>54486.23806287075</v>
+        <v>193739.5681265837</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>602120.274666114</v>
+        <v>154169.1112526439</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>154169.1112526439</v>
+        <v>602120.274666114</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>604273.9674366151</v>
+        <v>154804.4438620455</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>154804.4438620455</v>
+        <v>604273.9674366151</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>606563.1167497998</v>
+        <v>155225.7140021075</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>155225.7140021075</v>
+        <v>606563.1167497998</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>430.3169969480641</v>
+        <v>12090.72719861821</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12090.72719861821</v>
+        <v>430.3169969480641</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>608943.472297729</v>
+        <v>155847.7971288816</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>155847.7971288816</v>
+        <v>608943.472297729</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>611390.2827094886</v>
+        <v>156697.6099861468</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>156697.6099861468</v>
+        <v>611390.2827094886</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>587162.0839416981</v>
+        <v>141526.3684367656</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141526.3684367656</v>
+        <v>587162.0839416981</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>589857.1606796281</v>
+        <v>141520.4722651809</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141520.4722651809</v>
+        <v>589857.1606796281</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>592893.5336530451</v>
+        <v>141735.1237080074</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141735.1237080074</v>
+        <v>592893.5336530451</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>596563.8731167661</v>
+        <v>141841.6040059018</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>141841.6040059018</v>
+        <v>596563.8731167661</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>601292.6882218542</v>
+        <v>142503.3920115358</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142503.3920115358</v>
+        <v>601292.6882218542</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132907.7129160855</v>
+        <v>30055.78064591601</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30055.78064591601</v>
+        <v>132907.7129160855</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>141530.1073974324</v>
+        <v>29725.39157505333</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29725.39157505333</v>
+        <v>141530.1073974324</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>153157.0203551995</v>
+        <v>28878.56549554528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28878.56549554528</v>
+        <v>153157.0203551995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1014.859280325078</v>
+        <v>8022.234747374016</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8022.234747374016</v>
+        <v>1014.859280325078</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>168496.5529230759</v>
+        <v>28692.93879198749</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28692.93879198749</v>
+        <v>168496.5529230759</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>188146.2613527775</v>
+        <v>30947.08713421435</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30947.08713421435</v>
+        <v>188146.2613527775</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>122696.6643042909</v>
+        <v>20748.144700984</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20748.144700984</v>
+        <v>122696.6643042909</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>151837.4729948211</v>
+        <v>30296.54462806834</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30296.54462806834</v>
+        <v>151837.4729948211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>185488.3332126988</v>
+        <v>44403.61542243138</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>44403.61542243138</v>
+        <v>185488.3332126988</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>222944.6404935941</v>
+        <v>60714.94801754924</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>60714.94801754924</v>
+        <v>222944.6404935941</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>263059.716838209</v>
+        <v>79265.59489118704</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>79265.59489118704</v>
+        <v>263059.716838209</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>304267.5085979113</v>
+        <v>109335.4132582941</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>109335.4132582941</v>
+        <v>304267.5085979113</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>344656.0811693342</v>
+        <v>142905.279230827</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142905.279230827</v>
+        <v>344656.0811693342</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>382098.2712530298</v>
+        <v>155023.8196656725</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>155023.8196656725</v>
+        <v>382098.2712530298</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2750.437565723717</v>
+        <v>9659.263315046461</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9659.263315046461</v>
+        <v>2750.437565723717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>414436.9618821051</v>
+        <v>155126.7509218224</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>155126.7509218224</v>
+        <v>414436.9618821051</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>439708.7152513405</v>
+        <v>153277.403805648</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>153277.403805648</v>
+        <v>439708.7152513405</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>456375.1975299306</v>
+        <v>148919.581962151</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>148919.581962151</v>
+        <v>456375.1975299306</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>463522.8550061062</v>
+        <v>143296.4316888924</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>143296.4316888924</v>
+        <v>463522.8550061062</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>460992.5427879775</v>
+        <v>139309.3648421217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>139309.3648421217</v>
+        <v>460992.5427879775</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>449413.6843536524</v>
+        <v>132692.3482310243</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>132692.3482310243</v>
+        <v>449413.6843536524</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>490702.811999185</v>
+        <v>115718.4357284198</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>115718.4357284198</v>
+        <v>490702.811999185</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>482795.8417221922</v>
+        <v>82217.34671901981</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>82217.34671901981</v>
+        <v>482795.8417221922</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>454291.1343202749</v>
+        <v>63690.96928874752</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>63690.96928874752</v>
+        <v>454291.1343202749</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>424797.2091588676</v>
+        <v>49851.39388649445</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49851.39388649445</v>
+        <v>424797.2091588676</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3787.90381180562</v>
+        <v>9213.925933867162</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9213.925933867162</v>
+        <v>3787.90381180562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>396745.8569534514</v>
+        <v>48979.65984470514</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48979.65984470514</v>
+        <v>396745.8569534514</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>372336.7386725927</v>
+        <v>48940.27427282161</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48940.27427282161</v>
+        <v>372336.7386725927</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>344563.1761124637</v>
+        <v>47186.77582421759</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47186.77582421759</v>
+        <v>344563.1761124637</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>332264.7281722147</v>
+        <v>50666.42201072723</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50666.42201072723</v>
+        <v>332264.7281722147</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>327224.9293817701</v>
+        <v>61316.65369365481</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>61316.65369365481</v>
+        <v>327224.9293817701</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>329344.3761237292</v>
+        <v>77402.25845947978</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>77402.25845947978</v>
+        <v>329344.3761237292</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>337903.842891736</v>
+        <v>96992.37580852024</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>96992.37580852024</v>
+        <v>337903.842891736</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>343029.5606877664</v>
+        <v>117829.3424990554</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117829.3424990554</v>
+        <v>343029.5606877664</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>360610.6687226724</v>
+        <v>142009.4293251499</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142009.4293251499</v>
+        <v>360610.6687226724</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>380408.1606948674</v>
+        <v>160321.8578004942</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>160321.8578004942</v>
+        <v>380408.1606948674</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3642.405278383589</v>
+        <v>10935.03455378785</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10935.03455378785</v>
+        <v>3642.405278383589</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>400933.1118365387</v>
+        <v>167868.0490606327</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>167868.0490606327</v>
+        <v>400933.1118365387</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>420865.8215168854</v>
+        <v>167792.6718597815</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>167792.6718597815</v>
+        <v>420865.8215168854</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>432580.610664051</v>
+        <v>162862.2725522246</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>162862.2725522246</v>
+        <v>432580.610664051</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>448282.2260883907</v>
+        <v>157901.5722070911</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>157901.5722070911</v>
+        <v>448282.2260883907</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>460847.118528923</v>
+        <v>151446.3351401284</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>151446.3351401284</v>
+        <v>460847.118528923</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>469936.502695146</v>
+        <v>142371.37317457</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142371.37317457</v>
+        <v>469936.502695146</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>475458.6772734709</v>
+        <v>128056.5712388265</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>128056.5712388265</v>
+        <v>475458.6772734709</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>472995.1241683252</v>
+        <v>106702.3029527273</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>106702.3029527273</v>
+        <v>472995.1241683252</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>471981.541537717</v>
+        <v>85725.15237726457</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85725.15237726457</v>
+        <v>471981.541537717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>468355.4654622599</v>
+        <v>71172.63754799869</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>71172.63754799869</v>
+        <v>468355.4654622599</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6221.006928950941</v>
+        <v>11512.266964967</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11512.266964967</v>
+        <v>6221.006928950941</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>462731.3460311405</v>
+        <v>63966.68755524186</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>63966.68755524186</v>
+        <v>462731.3460311405</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>455811.6118785609</v>
+        <v>62219.1727675898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>62219.1727675898</v>
+        <v>455811.6118785609</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>443906.4696542621</v>
+        <v>62041.60300364904</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>62041.60300364904</v>
+        <v>443906.4696542621</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>436663.7648978066</v>
+        <v>65660.11469643237</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>65660.11469643237</v>
+        <v>436663.7648978066</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>430363.8036930617</v>
+        <v>74043.2432620232</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>74043.2432620232</v>
+        <v>430363.8036930617</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>425637.0947346315</v>
+        <v>87687.32351052901</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>87687.32351052901</v>
+        <v>425637.0947346315</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>422967.4623101987</v>
+        <v>105270.2506666919</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>105270.2506666919</v>
+        <v>422967.4623101987</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>417982.5040904563</v>
+        <v>123774.2712843758</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>123774.2712843758</v>
+        <v>417982.5040904563</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>420084.276592914</v>
+        <v>143607.2489023022</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>143607.2489023022</v>
+        <v>420084.276592914</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>424463.0884167925</v>
+        <v>160763.3145335522</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>160763.3145335522</v>
+        <v>424463.0884167925</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17713.6694432871</v>
+        <v>9096.644446862731</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9096.644446862731</v>
+        <v>17713.6694432871</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>430780.9548709076</v>
+        <v>171669.7619487871</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>171669.7619487871</v>
+        <v>430780.9548709076</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>438555.1029726062</v>
+        <v>175206.4405052196</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>175206.4405052196</v>
+        <v>438555.1029726062</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>441957.4891909137</v>
+        <v>171885.1173135671</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>171885.1173135671</v>
+        <v>441957.4891909137</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>450915.9337555729</v>
+        <v>166780.3887924561</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>166780.3887924561</v>
+        <v>450915.9337555729</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>459608.3133571446</v>
+        <v>159759.4294806202</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>159759.4294806202</v>
+        <v>459608.3133571446</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>467545.8385404926</v>
+        <v>150268.4898941475</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>150268.4898941475</v>
+        <v>467545.8385404926</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>474343.3543432914</v>
+        <v>137288.8153302837</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>137288.8153302837</v>
+        <v>474343.3543432914</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>472548.0231381636</v>
+        <v>118920.7693314138</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>118920.7693314138</v>
+        <v>472548.0231381636</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>476402.1068537049</v>
+        <v>101064.5583035122</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>101064.5583035122</v>
+        <v>476402.1068537049</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>478704.7143030129</v>
+        <v>85904.30365049699</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85904.30365049699</v>
+        <v>478704.7143030129</v>
       </c>
       <c r="F6">
         <v>0</v>
